--- a/Saved_file/EM002/2026_07/work_logs_EM002_2026_07.xlsx
+++ b/Saved_file/EM002/2026_07/work_logs_EM002_2026_07.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-07-07 09:54:41</t>
+          <t>2026-07-06 17:25:22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.236</t>
+          <t>Mouse anomaly detected - Score: 0.716</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SESS_20260707_000</t>
+          <t>SESS_20260706_000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -511,34 +511,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>09:54:41</t>
+          <t>17:25:22</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-07-06 18:05:19</t>
+          <t>2026-07-28 11:47:04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.729</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SESS_20260706_001</t>
+          <t>SESS_20260728_001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,34 +561,34 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>18:05:19</t>
+          <t>11:47:04</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-07-05 09:19:10</t>
+          <t>2026-07-09 14:26:41</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.949</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -598,12 +598,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SESS_20260705_002</t>
+          <t>SESS_20260709_002</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -611,34 +611,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>09:19:10</t>
+          <t>14:26:41</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-07-04 15:48:13</t>
+          <t>2026-07-20 18:04:38</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.930</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -648,12 +648,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SESS_20260704_003</t>
+          <t>SESS_20260720_003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -661,29 +661,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15:48:13</t>
+          <t>18:04:38</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-07-01 14:30:18</t>
+          <t>2026-07-08 19:40:14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SESS_20260701_004</t>
+          <t>SESS_20260708_004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14:30:18</t>
+          <t>19:40:14</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -728,17 +728,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-07-02 13:47:36</t>
+          <t>2026-07-13 09:23:15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.403</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SESS_20260702_005</t>
+          <t>SESS_20260713_005</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -761,24 +761,24 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13:47:36</t>
+          <t>09:23:15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-07-07 08:47:39</t>
+          <t>2026-07-27 18:56:13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.836</t>
+          <t>Mouse anomaly detected - Score: 0.946</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SESS_20260707_006</t>
+          <t>SESS_20260727_006</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>08:47:39</t>
+          <t>18:56:13</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -828,17 +828,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-07-05 08:16:02</t>
+          <t>2026-07-02 19:51:12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LIVENESS_CHECK</t>
+          <t>INACTIVITY_ALERT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.253</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SESS_20260705_007</t>
+          <t>SESS_20260702_007</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -861,34 +861,34 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>08:16:02</t>
+          <t>19:51:12</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-07-12 11:11:23</t>
+          <t>2026-07-17 18:08:01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FACE_MATCH</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.256</t>
+          <t>Face verification failed - Similarity: 0.283</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SESS_20260712_008</t>
+          <t>SESS_20260717_008</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11:11:23</t>
+          <t>18:08:01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -928,17 +928,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-07-25 18:29:50</t>
+          <t>2026-07-10 15:53:22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.737</t>
+          <t>Face verification failed - Similarity: 0.342</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SESS_20260725_009</t>
+          <t>SESS_20260710_009</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -961,24 +961,24 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-07-25</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>18:29:50</t>
+          <t>15:53:22</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-07-16 12:48:09</t>
+          <t>2026-07-21 08:40:04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.849</t>
+          <t>Mouse anomaly detected - Score: 0.933</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SESS_20260716_010</t>
+          <t>SESS_20260721_010</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12:48:09</t>
+          <t>08:40:04</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1028,17 +1028,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-07-27 17:16:10</t>
+          <t>2026-07-22 18:26:11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.836</t>
+          <t>Face verification failed - Similarity: 0.346</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SESS_20260727_011</t>
+          <t>SESS_20260722_011</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1061,34 +1061,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17:16:10</t>
+          <t>18:26:11</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-07-14 11:25:37</t>
+          <t>2026-07-04 12:06:33</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.474</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SESS_20260714_012</t>
+          <t>SESS_20260704_012</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1111,34 +1111,34 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11:25:37</t>
+          <t>12:06:33</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-07-19 15:42:49</t>
+          <t>2026-07-04 16:22:41</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>RAPID_PAUSE_DETECTED</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.948</t>
+          <t>Mouse anomaly detected - Score: 0.855</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SESS_20260719_013</t>
+          <t>SESS_20260704_013</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-07-19</t>
+          <t>2026-07-04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15:42:49</t>
+          <t>16:22:41</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1178,17 +1178,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-07-14 20:14:01</t>
+          <t>2026-07-05 14:55:43</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPOOFING_DETECTED</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.293</t>
+          <t>Face verification failed - Similarity: 0.227</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SESS_20260714_014</t>
+          <t>SESS_20260705_014</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-05</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20:14:01</t>
+          <t>14:55:43</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1228,17 +1228,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-07-09 09:06:25</t>
+          <t>2026-07-17 16:11:05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>ANOMALY_DETECTED</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Mouse anomaly detected - Score: 0.779</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SESS_20260709_015</t>
+          <t>SESS_20260717_015</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1261,34 +1261,34 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>09:06:25</t>
+          <t>16:11:05</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-07-17 12:47:55</t>
+          <t>2026-07-07 11:37:10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.463</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SESS_20260717_016</t>
+          <t>SESS_20260707_016</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1311,24 +1311,24 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>12:47:55</t>
+          <t>11:37:10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-07-06 11:02:21</t>
+          <t>2026-07-12 14:56:17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.770</t>
+          <t>Mouse anomaly detected - Score: 0.759</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SESS_20260706_017</t>
+          <t>SESS_20260712_017</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-12</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11:02:21</t>
+          <t>14:56:17</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1378,17 +1378,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-07-11 16:21:57</t>
+          <t>2026-07-27 17:19:47</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BEHAVIOR_ANOMALY</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.809</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SESS_20260711_018</t>
+          <t>SESS_20260727_018</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1411,34 +1411,34 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-27</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16:21:57</t>
+          <t>17:19:47</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-07-02 14:08:15</t>
+          <t>2026-07-03 20:53:35</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.788</t>
+          <t>Face verification failed - Similarity: 0.324</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1448,12 +1448,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SESS_20260702_019</t>
+          <t>SESS_20260703_019</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1461,34 +1461,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14:08:15</t>
+          <t>20:53:35</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-07-11 14:45:10</t>
+          <t>2026-07-22 10:11:45</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>SPOOFING_DETECTED</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.860</t>
+          <t>Face verification failed - Similarity: 0.238</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SESS_20260711_020</t>
+          <t>SESS_20260722_020</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1511,34 +1511,34 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-07-11</t>
+          <t>2026-07-22</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14:45:10</t>
+          <t>10:11:45</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-07-12 15:41:53</t>
+          <t>2026-07-24 15:22:33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.375</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SESS_20260712_021</t>
+          <t>SESS_20260724_021</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1561,34 +1561,34 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-24</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15:41:53</t>
+          <t>15:22:33</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-07-15 09:32:06</t>
+          <t>2026-07-13 08:30:35</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.948</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SESS_20260715_022</t>
+          <t>SESS_20260713_022</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1611,34 +1611,34 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:32:06</t>
+          <t>08:30:35</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-07-01 08:21:27</t>
+          <t>2026-07-17 15:20:42</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.814</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SESS_20260701_023</t>
+          <t>SESS_20260717_023</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1661,34 +1661,34 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>08:21:27</t>
+          <t>15:20:42</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-07-03 11:21:13</t>
+          <t>2026-07-03 16:33:18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>TAB_SWITCH</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.203</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1716,29 +1716,29 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11:21:13</t>
+          <t>16:33:18</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-07-04 17:22:17</t>
+          <t>2026-07-01 20:35:42</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.274</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SESS_20260704_025</t>
+          <t>SESS_20260701_025</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1761,34 +1761,34 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>17:22:17</t>
+          <t>20:35:42</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-07-08 15:54:11</t>
+          <t>2026-07-16 13:12:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.349</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SESS_20260708_026</t>
+          <t>SESS_20260716_026</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1811,34 +1811,34 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15:54:11</t>
+          <t>13:12:36</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-07-05 16:17:02</t>
+          <t>2026-07-11 17:47:44</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SESSION_START</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.327</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SESS_20260705_027</t>
+          <t>SESS_20260711_027</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1861,34 +1861,34 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-07-05</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>16:17:02</t>
+          <t>17:47:44</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-07-18 19:26:59</t>
+          <t>2026-07-21 19:35:42</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ANOMALY_DETECTED</t>
+          <t>FACE_VERIFICATION</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.761</t>
+          <t>Face verification failed - Similarity: 0.445</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SESS_20260718_028</t>
+          <t>SESS_20260721_028</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1911,34 +1911,34 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-07-18</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>19:26:59</t>
+          <t>19:35:42</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-07-13 10:28:06</t>
+          <t>2026-07-07 20:01:12</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FACE_VERIFICATION</t>
+          <t>SESSION_START</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.494</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SESS_20260713_029</t>
+          <t>SESS_20260707_029</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1961,34 +1961,34 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10:28:06</t>
+          <t>20:01:12</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Face</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-07-27 15:06:10</t>
+          <t>2026-07-11 12:52:17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FACE_MISMATCH</t>
+          <t>LIVENESS_CHECK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Face verification failed - Similarity: 0.491</t>
+          <t>Face verification failed - Similarity: 0.359</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SESS_20260727_030</t>
+          <t>SESS_20260711_030</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-07-27</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15:06:10</t>
+          <t>12:52:17</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2028,12 +2028,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-07-04 12:56:51</t>
+          <t>2026-07-19 17:41:14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INACTIVITY_ALERT</t>
+          <t>BROWSER_OPEN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SESS_20260704_031</t>
+          <t>SESS_20260719_031</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-07-04</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>12:56:51</t>
+          <t>17:41:14</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2078,17 +2078,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-07-26 16:11:20</t>
+          <t>2026-07-14 08:40:21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE_DETECTED</t>
+          <t>BEHAVIOR_ANOMALY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.853</t>
+          <t>Mouse anomaly detected - Score: 0.722</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SESS_20260726_032</t>
+          <t>SESS_20260714_032</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-07-26</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>16:11:20</t>
+          <t>08:40:21</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2128,17 +2128,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-07-02 10:29:37</t>
+          <t>2026-07-18 11:19:09</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RAPID_PAUSE</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.305</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SESS_20260702_033</t>
+          <t>SESS_20260718_033</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2161,34 +2161,34 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10:29:37</t>
+          <t>11:19:09</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-07-13 09:37:45</t>
+          <t>2026-07-23 17:28:11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BROWSER_OPEN</t>
+          <t>FACE_MATCH</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.336</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SESS_20260713_034</t>
+          <t>SESS_20260723_034</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2211,34 +2211,34 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-23</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>09:37:45</t>
+          <t>17:28:11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Browser</t>
+          <t>Face</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-07-09 08:25:15</t>
+          <t>2026-07-13 14:48:36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOUSE_SESSION</t>
+          <t>RAPID_PAUSE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse anomaly detected - Score: 0.930</t>
+          <t>Browser suspicious activity detected</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SESS_20260709_035</t>
+          <t>SESS_20260713_035</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2261,24 +2261,24 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>08:25:15</t>
+          <t>14:48:36</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Mouse</t>
+          <t>Browser</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-07-15 08:50:53</t>
+          <t>2026-07-20 18:46:50</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SESS_20260715_036</t>
+          <t>SESS_20260720_036</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>WARNING</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>08:50:53</t>
+          <t>18:46:50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2328,17 +2328,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-07-15 09:14:29</t>
+          <t>2026-07-19 20:30:38</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TAB_SWITCH</t>
+          <t>FACE_MISMATCH</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Browser suspicious activity detected</t>
+          <t>Face verification failed - Similarity: 0.438</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SESS_20260715_037</t>
+          <t>SESS_20260719_037</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>WARNING</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2361,315 +2361,15 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-19</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>09:14:29</t>
+          <t>20:30:38</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>Browser</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2026-07-18 18:33:33</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>FACE_VERIFICATION</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.329</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>SESS_20260718_038</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2026-07-18</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>18:33:33</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2026-07-13 20:08:07</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.710</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>SESS_20260713_039</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2026-07-13</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>20:08:07</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2026-07-01 11:54:49</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.800</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>SESS_20260701_040</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2026-07-01</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>11:54:49</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2026-07-13 08:54:22</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Mouse anomaly detected - Score: 0.749</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>SESS_20260713_041</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2026-07-13</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>08:54:22</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2026-07-04 20:19:29</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>FACE_VERIFICATION</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.482</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>SESS_20260704_042</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2026-07-04</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>20:19:29</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Face</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2026-07-27 10:05:38</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>LIVENESS_CHECK</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Face verification failed - Similarity: 0.394</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>SESS_20260727_043</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>WARNING</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2026-07-27</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>10:05:38</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
         <is>
           <t>Face</t>
         </is>
@@ -2686,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2829,7 +2529,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-07-01 13:24:54</t>
+          <t>2026-07-01 11:09:33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2839,7 +2539,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.475</t>
+          <t>Mouse session - Score: 0.486</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2867,7 +2567,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13:24:54</t>
+          <t>11:09:33</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -2876,58 +2576,58 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>17289</v>
+        <v>10965</v>
       </c>
       <c r="L2" t="n">
-        <v>17289</v>
+        <v>10965</v>
       </c>
       <c r="M2" t="n">
-        <v>30881.77</v>
+        <v>11702.89</v>
       </c>
       <c r="N2" t="n">
-        <v>18529.06</v>
+        <v>7021.74</v>
       </c>
       <c r="O2" t="n">
-        <v>12352.71</v>
+        <v>4681.16</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>45.44</v>
+        <v>157.98</v>
       </c>
       <c r="S2" t="n">
-        <v>679.67</v>
+        <v>74.08</v>
       </c>
       <c r="T2" t="n">
-        <v>37.51</v>
+        <v>15.57</v>
       </c>
       <c r="U2" t="n">
-        <v>407.8</v>
+        <v>44.45</v>
       </c>
       <c r="V2" t="n">
-        <v>271.87</v>
+        <v>29.63</v>
       </c>
       <c r="W2" t="n">
-        <v>12.7</v>
+        <v>23.69</v>
       </c>
       <c r="X2" t="n">
-        <v>2.91</v>
+        <v>16.52</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.44</v>
+        <v>157.98</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.475</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-07-01 15:22:11</t>
+          <t>2026-07-01 15:42:06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2937,7 +2637,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.614</t>
+          <t>Mouse session - Score: 0.941</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2952,11 +2652,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2965,7 +2665,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15:22:11</t>
+          <t>15:42:06</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -2974,58 +2674,58 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11574</v>
+        <v>10704</v>
       </c>
       <c r="L3" t="n">
-        <v>11574</v>
+        <v>10704</v>
       </c>
       <c r="M3" t="n">
-        <v>19904.44</v>
+        <v>5623.5</v>
       </c>
       <c r="N3" t="n">
-        <v>11942.66</v>
+        <v>3374.1</v>
       </c>
       <c r="O3" t="n">
-        <v>7961.77</v>
+        <v>2249.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>174.49</v>
+        <v>39.75</v>
       </c>
       <c r="S3" t="n">
-        <v>114.07</v>
+        <v>141.49</v>
       </c>
       <c r="T3" t="n">
-        <v>23.12</v>
+        <v>47.91</v>
       </c>
       <c r="U3" t="n">
-        <v>68.44</v>
+        <v>84.89</v>
       </c>
       <c r="V3" t="n">
-        <v>45.63</v>
+        <v>56.59</v>
       </c>
       <c r="W3" t="n">
-        <v>6.42</v>
+        <v>25.82</v>
       </c>
       <c r="X3" t="n">
-        <v>12.57</v>
+        <v>27.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>174.49</v>
+        <v>39.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.614</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-07-01 10:23:21</t>
+          <t>2026-07-01 14:24:02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3035,7 +2735,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.475</t>
+          <t>Mouse session - Score: 0.547</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3063,7 +2763,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10:23:21</t>
+          <t>14:24:02</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3072,58 +2772,58 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>25072</v>
+        <v>11068</v>
       </c>
       <c r="L4" t="n">
-        <v>25072</v>
+        <v>11068</v>
       </c>
       <c r="M4" t="n">
-        <v>29975.54</v>
+        <v>22253.16</v>
       </c>
       <c r="N4" t="n">
-        <v>17985.33</v>
+        <v>13351.9</v>
       </c>
       <c r="O4" t="n">
-        <v>11990.22</v>
+        <v>8901.27</v>
       </c>
       <c r="P4" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R4" t="n">
-        <v>60.93</v>
+        <v>133.65</v>
       </c>
       <c r="S4" t="n">
-        <v>491.97</v>
+        <v>166.5</v>
       </c>
       <c r="T4" t="n">
-        <v>24.7</v>
+        <v>12.34</v>
       </c>
       <c r="U4" t="n">
-        <v>295.18</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V4" t="n">
-        <v>196.79</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>4.13</v>
+        <v>13.57</v>
       </c>
       <c r="X4" t="n">
-        <v>7.64</v>
+        <v>17.75</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.93</v>
+        <v>133.65</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.475</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-07-01 10:47:31</t>
+          <t>2026-07-02 17:38:03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3133,7 +2833,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.521</t>
+          <t>Mouse session - Score: 0.896</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3143,25 +2843,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MOUSE_20260701_003</t>
+          <t>MOUSE_20260702_000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2026-07-02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10:47:31</t>
+          <t>17:38:03</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3170,58 +2870,58 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>24925</v>
+        <v>29297</v>
       </c>
       <c r="L5" t="n">
-        <v>24925</v>
+        <v>29297</v>
       </c>
       <c r="M5" t="n">
-        <v>25073.08</v>
+        <v>28261.02</v>
       </c>
       <c r="N5" t="n">
-        <v>15043.85</v>
+        <v>16956.61</v>
       </c>
       <c r="O5" t="n">
-        <v>10029.23</v>
+        <v>11304.41</v>
       </c>
       <c r="P5" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="R5" t="n">
-        <v>135.78</v>
+        <v>77.05</v>
       </c>
       <c r="S5" t="n">
-        <v>184.67</v>
+        <v>366.8</v>
       </c>
       <c r="T5" t="n">
-        <v>22.09</v>
+        <v>35.43</v>
       </c>
       <c r="U5" t="n">
-        <v>110.8</v>
+        <v>220.08</v>
       </c>
       <c r="V5" t="n">
-        <v>73.87</v>
+        <v>146.72</v>
       </c>
       <c r="W5" t="n">
-        <v>8.24</v>
+        <v>21.07</v>
       </c>
       <c r="X5" t="n">
-        <v>24.5</v>
+        <v>25.17</v>
       </c>
       <c r="Y5" t="n">
-        <v>135.78</v>
+        <v>77.05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.521</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-07-02 11:21:59</t>
+          <t>2026-07-02 09:09:14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3231,7 +2931,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.573</t>
+          <t>Mouse session - Score: 0.481</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3241,7 +2941,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MOUSE_20260702_000</t>
+          <t>MOUSE_20260702_001</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3259,7 +2959,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11:21:59</t>
+          <t>09:09:14</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3268,58 +2968,58 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>27689</v>
+        <v>21465</v>
       </c>
       <c r="L6" t="n">
-        <v>27689</v>
+        <v>21465</v>
       </c>
       <c r="M6" t="n">
-        <v>27418.31</v>
+        <v>27745.53</v>
       </c>
       <c r="N6" t="n">
-        <v>16450.99</v>
+        <v>16647.32</v>
       </c>
       <c r="O6" t="n">
-        <v>10967.33</v>
+        <v>11098.21</v>
       </c>
       <c r="P6" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R6" t="n">
-        <v>50.05</v>
+        <v>166.79</v>
       </c>
       <c r="S6" t="n">
-        <v>547.85</v>
+        <v>166.35</v>
       </c>
       <c r="T6" t="n">
-        <v>13.06</v>
+        <v>11.3</v>
       </c>
       <c r="U6" t="n">
-        <v>328.71</v>
+        <v>99.81</v>
       </c>
       <c r="V6" t="n">
-        <v>219.14</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>8.77</v>
+        <v>28.45</v>
       </c>
       <c r="X6" t="n">
-        <v>23.03</v>
+        <v>9.43</v>
       </c>
       <c r="Y6" t="n">
-        <v>50.05</v>
+        <v>166.79</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.573</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-07-02 13:38:36</t>
+          <t>2026-07-02 14:43:49</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3329,7 +3029,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.541</t>
+          <t>Mouse session - Score: 0.478</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3339,7 +3039,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MOUSE_20260702_001</t>
+          <t>MOUSE_20260702_002</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3357,7 +3057,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13:38:36</t>
+          <t>14:43:49</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3366,58 +3066,58 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>18816</v>
+        <v>20448</v>
       </c>
       <c r="L7" t="n">
-        <v>18816</v>
+        <v>20448</v>
       </c>
       <c r="M7" t="n">
-        <v>18621.07</v>
+        <v>15032.6</v>
       </c>
       <c r="N7" t="n">
-        <v>11172.64</v>
+        <v>9019.559999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>7448.43</v>
+        <v>6013.04</v>
       </c>
       <c r="P7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="R7" t="n">
-        <v>139.14</v>
+        <v>73.03</v>
       </c>
       <c r="S7" t="n">
-        <v>133.83</v>
+        <v>205.85</v>
       </c>
       <c r="T7" t="n">
-        <v>39.57</v>
+        <v>30.77</v>
       </c>
       <c r="U7" t="n">
-        <v>80.3</v>
+        <v>123.51</v>
       </c>
       <c r="V7" t="n">
-        <v>53.53</v>
+        <v>82.34</v>
       </c>
       <c r="W7" t="n">
-        <v>21.87</v>
+        <v>21.52</v>
       </c>
       <c r="X7" t="n">
-        <v>27.88</v>
+        <v>19.23</v>
       </c>
       <c r="Y7" t="n">
-        <v>139.14</v>
+        <v>73.03</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.541</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-07-02 12:59:28</t>
+          <t>2026-07-03 16:45:51</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3427,7 +3127,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.563</t>
+          <t>Mouse session - Score: 0.451</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3437,7 +3137,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MOUSE_20260702_002</t>
+          <t>MOUSE_20260703_000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3450,12 +3150,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>12:59:28</t>
+          <t>16:45:51</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3464,58 +3164,58 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>17567</v>
+        <v>13956</v>
       </c>
       <c r="L8" t="n">
-        <v>17567</v>
+        <v>13956</v>
       </c>
       <c r="M8" t="n">
-        <v>34350.91</v>
+        <v>38949.61</v>
       </c>
       <c r="N8" t="n">
-        <v>20610.54</v>
+        <v>23369.77</v>
       </c>
       <c r="O8" t="n">
-        <v>13740.36</v>
+        <v>15579.84</v>
       </c>
       <c r="P8" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R8" t="n">
-        <v>34.75</v>
+        <v>106.02</v>
       </c>
       <c r="S8" t="n">
-        <v>988.5599999999999</v>
+        <v>367.37</v>
       </c>
       <c r="T8" t="n">
-        <v>41.59</v>
+        <v>5.95</v>
       </c>
       <c r="U8" t="n">
-        <v>593.13</v>
+        <v>220.42</v>
       </c>
       <c r="V8" t="n">
-        <v>395.42</v>
+        <v>146.95</v>
       </c>
       <c r="W8" t="n">
-        <v>20.92</v>
+        <v>17.19</v>
       </c>
       <c r="X8" t="n">
-        <v>2.22</v>
+        <v>15.44</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.75</v>
+        <v>106.02</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-07-02 15:07:46</t>
+          <t>2026-07-03 17:26:52</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3525,7 +3225,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.628</t>
+          <t>Mouse session - Score: 0.650</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3535,7 +3235,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MOUSE_20260702_003</t>
+          <t>MOUSE_20260703_001</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3548,12 +3248,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15:07:46</t>
+          <t>17:26:52</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3562,58 +3262,58 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>13219</v>
+        <v>22447</v>
       </c>
       <c r="L9" t="n">
-        <v>13219</v>
+        <v>22447</v>
       </c>
       <c r="M9" t="n">
-        <v>34901.25</v>
+        <v>12527.33</v>
       </c>
       <c r="N9" t="n">
-        <v>20940.75</v>
+        <v>7516.4</v>
       </c>
       <c r="O9" t="n">
-        <v>13960.5</v>
+        <v>5010.93</v>
       </c>
       <c r="P9" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="R9" t="n">
-        <v>32.15</v>
+        <v>30.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1085.74</v>
+        <v>408.95</v>
       </c>
       <c r="T9" t="n">
-        <v>30.46</v>
+        <v>10.65</v>
       </c>
       <c r="U9" t="n">
-        <v>651.45</v>
+        <v>245.37</v>
       </c>
       <c r="V9" t="n">
-        <v>434.3</v>
+        <v>163.58</v>
       </c>
       <c r="W9" t="n">
-        <v>11.96</v>
+        <v>16.93</v>
       </c>
       <c r="X9" t="n">
-        <v>9.77</v>
+        <v>11.08</v>
       </c>
       <c r="Y9" t="n">
-        <v>32.15</v>
+        <v>30.63</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.628</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-07-03 14:07:37</t>
+          <t>2026-07-03 10:17:29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3623,7 +3323,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.527</t>
+          <t>Mouse session - Score: 0.607</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3633,7 +3333,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MOUSE_20260703_000</t>
+          <t>MOUSE_20260703_002</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -3651,7 +3351,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>14:07:37</t>
+          <t>10:17:29</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -3660,58 +3360,58 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>11703</v>
+        <v>20611</v>
       </c>
       <c r="L10" t="n">
-        <v>11703</v>
+        <v>20611</v>
       </c>
       <c r="M10" t="n">
-        <v>15726.98</v>
+        <v>37476.53</v>
       </c>
       <c r="N10" t="n">
-        <v>9436.190000000001</v>
+        <v>22485.92</v>
       </c>
       <c r="O10" t="n">
-        <v>6290.79</v>
+        <v>14990.61</v>
       </c>
       <c r="P10" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>273.74</v>
+      </c>
+      <c r="T10" t="n">
         <v>8</v>
       </c>
-      <c r="R10" t="n">
-        <v>94.13</v>
-      </c>
-      <c r="S10" t="n">
-        <v>167.07</v>
-      </c>
-      <c r="T10" t="n">
-        <v>22.78</v>
-      </c>
       <c r="U10" t="n">
-        <v>100.24</v>
+        <v>164.25</v>
       </c>
       <c r="V10" t="n">
-        <v>66.83</v>
+        <v>109.5</v>
       </c>
       <c r="W10" t="n">
-        <v>14.39</v>
+        <v>29.61</v>
       </c>
       <c r="X10" t="n">
-        <v>4.31</v>
+        <v>19.16</v>
       </c>
       <c r="Y10" t="n">
-        <v>94.13</v>
+        <v>136.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.527</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-07-03 12:28:15</t>
+          <t>2026-07-06 13:29:51</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3721,7 +3421,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.522</t>
+          <t>Mouse session - Score: 0.507</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3731,7 +3431,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MOUSE_20260703_001</t>
+          <t>MOUSE_20260706_000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -3744,12 +3444,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>12:28:15</t>
+          <t>13:29:51</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -3758,58 +3458,58 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>12553</v>
+        <v>5070</v>
       </c>
       <c r="L11" t="n">
-        <v>12553</v>
+        <v>5070</v>
       </c>
       <c r="M11" t="n">
-        <v>7025.34</v>
+        <v>26132.35</v>
       </c>
       <c r="N11" t="n">
-        <v>4215.21</v>
+        <v>15679.41</v>
       </c>
       <c r="O11" t="n">
-        <v>2810.14</v>
+        <v>10452.94</v>
       </c>
       <c r="P11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="R11" t="n">
-        <v>88.81</v>
+        <v>43.17</v>
       </c>
       <c r="S11" t="n">
-        <v>79.11</v>
+        <v>605.4</v>
       </c>
       <c r="T11" t="n">
-        <v>40.9</v>
+        <v>8.27</v>
       </c>
       <c r="U11" t="n">
-        <v>47.46</v>
+        <v>363.24</v>
       </c>
       <c r="V11" t="n">
-        <v>31.64</v>
+        <v>242.16</v>
       </c>
       <c r="W11" t="n">
-        <v>20.53</v>
+        <v>8.35</v>
       </c>
       <c r="X11" t="n">
-        <v>24.23</v>
+        <v>13.62</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.81</v>
+        <v>43.17</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.522</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-07-03 12:20:17</t>
+          <t>2026-07-06 10:06:35</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3819,7 +3519,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.830</t>
+          <t>Mouse session - Score: 0.556</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3829,25 +3529,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOUSE_20260703_002</t>
+          <t>MOUSE_20260706_001</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12:20:17</t>
+          <t>10:06:35</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -3856,58 +3556,58 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>17192</v>
+        <v>24724</v>
       </c>
       <c r="L12" t="n">
-        <v>17192</v>
+        <v>24724</v>
       </c>
       <c r="M12" t="n">
-        <v>27717.18</v>
+        <v>25199.07</v>
       </c>
       <c r="N12" t="n">
-        <v>16630.31</v>
+        <v>15119.44</v>
       </c>
       <c r="O12" t="n">
-        <v>11086.87</v>
+        <v>10079.63</v>
       </c>
       <c r="P12" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R12" t="n">
-        <v>92.08</v>
+        <v>113</v>
       </c>
       <c r="S12" t="n">
-        <v>301.01</v>
+        <v>222.99</v>
       </c>
       <c r="T12" t="n">
-        <v>32.44</v>
+        <v>38.87</v>
       </c>
       <c r="U12" t="n">
-        <v>180.61</v>
+        <v>133.8</v>
       </c>
       <c r="V12" t="n">
-        <v>120.41</v>
+        <v>89.2</v>
       </c>
       <c r="W12" t="n">
-        <v>3.63</v>
+        <v>9.07</v>
       </c>
       <c r="X12" t="n">
-        <v>2.78</v>
+        <v>9.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.08</v>
+        <v>113</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.83</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-07-03 15:42:42</t>
+          <t>2026-07-06 16:51:24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3917,7 +3617,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.586</t>
+          <t>Mouse session - Score: 0.941</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3927,25 +3627,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MOUSE_20260703_003</t>
+          <t>MOUSE_20260706_002</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2026-07-03</t>
+          <t>2026-07-06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15:42:42</t>
+          <t>16:51:24</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -3954,58 +3654,58 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>9613</v>
+        <v>7523</v>
       </c>
       <c r="L13" t="n">
-        <v>9613</v>
+        <v>7523</v>
       </c>
       <c r="M13" t="n">
-        <v>26629.42</v>
+        <v>33957.94</v>
       </c>
       <c r="N13" t="n">
-        <v>15977.65</v>
+        <v>20374.76</v>
       </c>
       <c r="O13" t="n">
-        <v>10651.77</v>
+        <v>13583.18</v>
       </c>
       <c r="P13" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="R13" t="n">
-        <v>130.56</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>203.97</v>
+        <v>488.3</v>
       </c>
       <c r="T13" t="n">
-        <v>44.79</v>
+        <v>49.73</v>
       </c>
       <c r="U13" t="n">
-        <v>122.38</v>
+        <v>292.98</v>
       </c>
       <c r="V13" t="n">
-        <v>81.59</v>
+        <v>195.32</v>
       </c>
       <c r="W13" t="n">
-        <v>19.63</v>
+        <v>14.23</v>
       </c>
       <c r="X13" t="n">
-        <v>23.26</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.56</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.586</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-07-06 14:04:57</t>
+          <t>2026-07-07 17:59:48</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -4015,7 +3715,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.622</t>
+          <t>Mouse session - Score: 0.465</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4025,7 +3725,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MOUSE_20260706_000</t>
+          <t>MOUSE_20260707_000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4038,12 +3738,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>14:04:57</t>
+          <t>17:59:48</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -4052,58 +3752,58 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>26030</v>
+        <v>11171</v>
       </c>
       <c r="L14" t="n">
-        <v>26030</v>
+        <v>11171</v>
       </c>
       <c r="M14" t="n">
-        <v>12742.42</v>
+        <v>27473.09</v>
       </c>
       <c r="N14" t="n">
-        <v>7645.45</v>
+        <v>16483.85</v>
       </c>
       <c r="O14" t="n">
-        <v>5096.97</v>
+        <v>10989.24</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R14" t="n">
-        <v>70.52</v>
+        <v>67.58</v>
       </c>
       <c r="S14" t="n">
-        <v>180.7</v>
+        <v>406.5</v>
       </c>
       <c r="T14" t="n">
-        <v>13.53</v>
+        <v>10.59</v>
       </c>
       <c r="U14" t="n">
-        <v>108.42</v>
+        <v>243.9</v>
       </c>
       <c r="V14" t="n">
-        <v>72.28</v>
+        <v>162.6</v>
       </c>
       <c r="W14" t="n">
-        <v>15.33</v>
+        <v>29.47</v>
       </c>
       <c r="X14" t="n">
-        <v>7.35</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>70.52</v>
+        <v>67.58</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.622</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-07-06 12:38:52</t>
+          <t>2026-07-07 12:44:34</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4113,7 +3813,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.472</t>
+          <t>Mouse session - Score: 0.578</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4123,7 +3823,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MOUSE_20260706_001</t>
+          <t>MOUSE_20260707_001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4136,12 +3836,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12:38:52</t>
+          <t>12:44:34</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -4150,58 +3850,58 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>11532</v>
+        <v>11988</v>
       </c>
       <c r="L15" t="n">
-        <v>11532</v>
+        <v>11988</v>
       </c>
       <c r="M15" t="n">
-        <v>38457.74</v>
+        <v>13346.93</v>
       </c>
       <c r="N15" t="n">
-        <v>23074.65</v>
+        <v>8008.16</v>
       </c>
       <c r="O15" t="n">
-        <v>15383.1</v>
+        <v>5338.77</v>
       </c>
       <c r="P15" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="Q15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>87.95</v>
+        <v>41.15</v>
       </c>
       <c r="S15" t="n">
-        <v>437.27</v>
+        <v>324.38</v>
       </c>
       <c r="T15" t="n">
-        <v>33.45</v>
+        <v>17.73</v>
       </c>
       <c r="U15" t="n">
-        <v>262.36</v>
+        <v>194.63</v>
       </c>
       <c r="V15" t="n">
-        <v>174.91</v>
+        <v>129.75</v>
       </c>
       <c r="W15" t="n">
-        <v>15.53</v>
+        <v>19.33</v>
       </c>
       <c r="X15" t="n">
-        <v>23.2</v>
+        <v>2.66</v>
       </c>
       <c r="Y15" t="n">
-        <v>87.95</v>
+        <v>41.15</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.472</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-07-06 16:33:32</t>
+          <t>2026-07-07 17:25:23</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4211,7 +3911,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.554</t>
+          <t>Mouse session - Score: 0.536</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4221,7 +3921,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MOUSE_20260706_002</t>
+          <t>MOUSE_20260707_002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4234,12 +3934,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-07</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>16:33:32</t>
+          <t>17:25:23</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -4248,58 +3948,58 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>21253</v>
+        <v>13850</v>
       </c>
       <c r="L16" t="n">
-        <v>21253</v>
+        <v>13850</v>
       </c>
       <c r="M16" t="n">
-        <v>11926.32</v>
+        <v>28813.16</v>
       </c>
       <c r="N16" t="n">
-        <v>7155.79</v>
+        <v>17287.89</v>
       </c>
       <c r="O16" t="n">
-        <v>4770.53</v>
+        <v>11525.26</v>
       </c>
       <c r="P16" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R16" t="n">
-        <v>162.81</v>
+        <v>176.4</v>
       </c>
       <c r="S16" t="n">
-        <v>73.25</v>
+        <v>163.34</v>
       </c>
       <c r="T16" t="n">
-        <v>39.96</v>
+        <v>47.16</v>
       </c>
       <c r="U16" t="n">
-        <v>43.95</v>
+        <v>98</v>
       </c>
       <c r="V16" t="n">
-        <v>29.3</v>
+        <v>65.34</v>
       </c>
       <c r="W16" t="n">
-        <v>14.29</v>
+        <v>5.48</v>
       </c>
       <c r="X16" t="n">
-        <v>11.46</v>
+        <v>24.49</v>
       </c>
       <c r="Y16" t="n">
-        <v>162.81</v>
+        <v>176.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.554</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-07-06 11:40:26</t>
+          <t>2026-07-08 10:36:59</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -4309,7 +4009,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.540</t>
+          <t>Mouse session - Score: 0.504</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4319,7 +4019,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MOUSE_20260706_003</t>
+          <t>MOUSE_20260708_000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4332,12 +4032,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2026-07-06</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11:40:26</t>
+          <t>10:36:59</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -4346,58 +4046,58 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>10842</v>
+        <v>5135</v>
       </c>
       <c r="L17" t="n">
-        <v>10842</v>
+        <v>5135</v>
       </c>
       <c r="M17" t="n">
-        <v>8610.129999999999</v>
+        <v>12399.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5166.08</v>
+        <v>7439.43</v>
       </c>
       <c r="O17" t="n">
-        <v>3444.05</v>
+        <v>4959.62</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>140.2</v>
+        <v>61.83</v>
       </c>
       <c r="S17" t="n">
-        <v>61.41</v>
+        <v>200.54</v>
       </c>
       <c r="T17" t="n">
-        <v>33.8</v>
+        <v>49.4</v>
       </c>
       <c r="U17" t="n">
-        <v>36.85</v>
+        <v>120.32</v>
       </c>
       <c r="V17" t="n">
-        <v>24.57</v>
+        <v>80.20999999999999</v>
       </c>
       <c r="W17" t="n">
-        <v>22.55</v>
+        <v>29.93</v>
       </c>
       <c r="X17" t="n">
-        <v>15.85</v>
+        <v>14.93</v>
       </c>
       <c r="Y17" t="n">
-        <v>140.2</v>
+        <v>61.83</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.54</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-07-07 16:41:26</t>
+          <t>2026-07-08 14:09:32</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4407,7 +4107,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.643</t>
+          <t>Mouse session - Score: 0.610</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4417,7 +4117,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MOUSE_20260707_000</t>
+          <t>MOUSE_20260708_001</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4430,12 +4130,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16:41:26</t>
+          <t>14:09:32</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -4444,58 +4144,58 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>10650</v>
+        <v>7939</v>
       </c>
       <c r="L18" t="n">
-        <v>10650</v>
+        <v>7939</v>
       </c>
       <c r="M18" t="n">
-        <v>6447.5</v>
+        <v>9260.35</v>
       </c>
       <c r="N18" t="n">
-        <v>3868.5</v>
+        <v>5556.21</v>
       </c>
       <c r="O18" t="n">
-        <v>2579</v>
+        <v>3704.14</v>
       </c>
       <c r="P18" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R18" t="n">
-        <v>65.42</v>
+        <v>159.53</v>
       </c>
       <c r="S18" t="n">
-        <v>98.55</v>
+        <v>58.05</v>
       </c>
       <c r="T18" t="n">
-        <v>24.8</v>
+        <v>30.62</v>
       </c>
       <c r="U18" t="n">
-        <v>59.13</v>
+        <v>34.83</v>
       </c>
       <c r="V18" t="n">
-        <v>39.42</v>
+        <v>23.22</v>
       </c>
       <c r="W18" t="n">
-        <v>18.17</v>
+        <v>11.58</v>
       </c>
       <c r="X18" t="n">
-        <v>21.63</v>
+        <v>17.03</v>
       </c>
       <c r="Y18" t="n">
-        <v>65.42</v>
+        <v>159.53</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.643</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-07-07 11:12:32</t>
+          <t>2026-07-08 11:29:39</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4505,7 +4205,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.490</t>
+          <t>Mouse session - Score: 0.919</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4515,25 +4215,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MOUSE_20260707_001</t>
+          <t>MOUSE_20260708_002</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11:12:32</t>
+          <t>11:29:39</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4542,58 +4242,58 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>27346</v>
+        <v>19461</v>
       </c>
       <c r="L19" t="n">
-        <v>27346</v>
+        <v>19461</v>
       </c>
       <c r="M19" t="n">
-        <v>8818.120000000001</v>
+        <v>14555.88</v>
       </c>
       <c r="N19" t="n">
-        <v>5290.87</v>
+        <v>8733.530000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>3527.25</v>
+        <v>5822.35</v>
       </c>
       <c r="P19" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="R19" t="n">
-        <v>128.82</v>
+        <v>45.94</v>
       </c>
       <c r="S19" t="n">
-        <v>68.45</v>
+        <v>316.82</v>
       </c>
       <c r="T19" t="n">
-        <v>21.29</v>
+        <v>31.57</v>
       </c>
       <c r="U19" t="n">
-        <v>41.07</v>
+        <v>190.09</v>
       </c>
       <c r="V19" t="n">
-        <v>27.38</v>
+        <v>126.73</v>
       </c>
       <c r="W19" t="n">
-        <v>18.24</v>
+        <v>6.7</v>
       </c>
       <c r="X19" t="n">
-        <v>5.82</v>
+        <v>29.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.82</v>
+        <v>45.94</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.49</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-07-07 14:58:57</t>
+          <t>2026-07-09 13:36:49</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4603,7 +4303,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.939</t>
+          <t>Mouse session - Score: 0.611</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4613,25 +4313,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MOUSE_20260707_002</t>
+          <t>MOUSE_20260709_000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14:58:57</t>
+          <t>13:36:49</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -4640,58 +4340,58 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>26879</v>
+        <v>25621</v>
       </c>
       <c r="L20" t="n">
-        <v>26879</v>
+        <v>25621</v>
       </c>
       <c r="M20" t="n">
-        <v>22010.11</v>
+        <v>39167.84</v>
       </c>
       <c r="N20" t="n">
-        <v>13206.07</v>
+        <v>23500.7</v>
       </c>
       <c r="O20" t="n">
-        <v>8804.040000000001</v>
+        <v>15667.14</v>
       </c>
       <c r="P20" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>58.49</v>
+        <v>103.56</v>
       </c>
       <c r="S20" t="n">
-        <v>376.29</v>
+        <v>378.2</v>
       </c>
       <c r="T20" t="n">
-        <v>28.61</v>
+        <v>26.7</v>
       </c>
       <c r="U20" t="n">
-        <v>225.77</v>
+        <v>226.92</v>
       </c>
       <c r="V20" t="n">
-        <v>150.52</v>
+        <v>151.28</v>
       </c>
       <c r="W20" t="n">
-        <v>5.02</v>
+        <v>7.79</v>
       </c>
       <c r="X20" t="n">
-        <v>2.85</v>
+        <v>6.49</v>
       </c>
       <c r="Y20" t="n">
-        <v>58.49</v>
+        <v>103.56</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-07-07 11:26:25</t>
+          <t>2026-07-09 14:56:05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4701,7 +4401,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.465</t>
+          <t>Mouse session - Score: 0.487</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4711,7 +4411,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MOUSE_20260707_003</t>
+          <t>MOUSE_20260709_001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4724,12 +4424,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11:26:25</t>
+          <t>14:56:05</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -4738,58 +4438,58 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>21371</v>
+        <v>13531</v>
       </c>
       <c r="L21" t="n">
-        <v>21371</v>
+        <v>13531</v>
       </c>
       <c r="M21" t="n">
-        <v>13315.3</v>
+        <v>39609.4</v>
       </c>
       <c r="N21" t="n">
-        <v>7989.18</v>
+        <v>23765.64</v>
       </c>
       <c r="O21" t="n">
-        <v>5326.12</v>
+        <v>15843.76</v>
       </c>
       <c r="P21" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q21" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="R21" t="n">
-        <v>125.99</v>
+        <v>157.44</v>
       </c>
       <c r="S21" t="n">
-        <v>105.69</v>
+        <v>251.59</v>
       </c>
       <c r="T21" t="n">
-        <v>22.75</v>
+        <v>12.02</v>
       </c>
       <c r="U21" t="n">
-        <v>63.41</v>
+        <v>150.95</v>
       </c>
       <c r="V21" t="n">
-        <v>42.28</v>
+        <v>100.63</v>
       </c>
       <c r="W21" t="n">
-        <v>11.29</v>
+        <v>14.19</v>
       </c>
       <c r="X21" t="n">
-        <v>9.75</v>
+        <v>29.06</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.99</v>
+        <v>157.44</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.465</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-07-08 16:18:28</t>
+          <t>2026-07-09 12:56:41</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4799,7 +4499,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.455</t>
+          <t>Mouse session - Score: 0.611</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4809,7 +4509,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MOUSE_20260708_000</t>
+          <t>MOUSE_20260709_002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4822,12 +4522,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>16:18:28</t>
+          <t>12:56:41</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4836,58 +4536,58 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>25821</v>
+        <v>5401</v>
       </c>
       <c r="L22" t="n">
-        <v>25821</v>
+        <v>5401</v>
       </c>
       <c r="M22" t="n">
-        <v>28202.19</v>
+        <v>18562.39</v>
       </c>
       <c r="N22" t="n">
-        <v>16921.32</v>
+        <v>11137.43</v>
       </c>
       <c r="O22" t="n">
-        <v>11280.88</v>
+        <v>7424.96</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="Q22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R22" t="n">
-        <v>161.07</v>
+        <v>66.3</v>
       </c>
       <c r="S22" t="n">
-        <v>175.09</v>
+        <v>279.97</v>
       </c>
       <c r="T22" t="n">
-        <v>34.09</v>
+        <v>44.57</v>
       </c>
       <c r="U22" t="n">
-        <v>105.06</v>
+        <v>167.98</v>
       </c>
       <c r="V22" t="n">
-        <v>70.04000000000001</v>
+        <v>111.99</v>
       </c>
       <c r="W22" t="n">
-        <v>9.48</v>
+        <v>12.5</v>
       </c>
       <c r="X22" t="n">
-        <v>18.47</v>
+        <v>2.98</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.07</v>
+        <v>66.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.455</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-07-08 10:06:02</t>
+          <t>2026-07-10 13:17:29</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4897,7 +4597,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.581</t>
+          <t>Mouse session - Score: 0.562</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4907,7 +4607,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MOUSE_20260708_001</t>
+          <t>MOUSE_20260710_000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4920,12 +4620,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10:06:02</t>
+          <t>13:17:29</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4934,58 +4634,58 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>20936</v>
+        <v>18547</v>
       </c>
       <c r="L23" t="n">
-        <v>20936</v>
+        <v>18547</v>
       </c>
       <c r="M23" t="n">
-        <v>5085.75</v>
+        <v>20666.24</v>
       </c>
       <c r="N23" t="n">
-        <v>3051.45</v>
+        <v>12399.75</v>
       </c>
       <c r="O23" t="n">
-        <v>2034.3</v>
+        <v>8266.5</v>
       </c>
       <c r="P23" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q23" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>179.05</v>
+        <v>62.84</v>
       </c>
       <c r="S23" t="n">
-        <v>28.4</v>
+        <v>328.89</v>
       </c>
       <c r="T23" t="n">
-        <v>48.93</v>
+        <v>34.78</v>
       </c>
       <c r="U23" t="n">
-        <v>17.04</v>
+        <v>197.33</v>
       </c>
       <c r="V23" t="n">
-        <v>11.36</v>
+        <v>131.56</v>
       </c>
       <c r="W23" t="n">
-        <v>8.380000000000001</v>
+        <v>13.53</v>
       </c>
       <c r="X23" t="n">
-        <v>13.26</v>
+        <v>22.51</v>
       </c>
       <c r="Y23" t="n">
-        <v>179.05</v>
+        <v>62.84</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.581</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-07-08 09:54:57</t>
+          <t>2026-07-10 17:03:17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4995,7 +4695,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.504</t>
+          <t>Mouse session - Score: 0.497</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -5005,7 +4705,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MOUSE_20260708_002</t>
+          <t>MOUSE_20260710_001</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -5018,12 +4718,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>09:54:57</t>
+          <t>17:03:17</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -5032,58 +4732,58 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>11368</v>
+        <v>13862</v>
       </c>
       <c r="L24" t="n">
-        <v>11368</v>
+        <v>13862</v>
       </c>
       <c r="M24" t="n">
-        <v>35546.34</v>
+        <v>9058.209999999999</v>
       </c>
       <c r="N24" t="n">
-        <v>21327.8</v>
+        <v>5434.92</v>
       </c>
       <c r="O24" t="n">
-        <v>14218.54</v>
+        <v>3623.28</v>
       </c>
       <c r="P24" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R24" t="n">
-        <v>177.55</v>
+        <v>143.84</v>
       </c>
       <c r="S24" t="n">
-        <v>200.21</v>
+        <v>62.98</v>
       </c>
       <c r="T24" t="n">
-        <v>13.34</v>
+        <v>29.5</v>
       </c>
       <c r="U24" t="n">
-        <v>120.12</v>
+        <v>37.79</v>
       </c>
       <c r="V24" t="n">
-        <v>80.08</v>
+        <v>25.19</v>
       </c>
       <c r="W24" t="n">
-        <v>5.48</v>
+        <v>16.41</v>
       </c>
       <c r="X24" t="n">
-        <v>24.42</v>
+        <v>28.68</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.55</v>
+        <v>143.84</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.504</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-07-08 17:17:52</t>
+          <t>2026-07-10 15:44:27</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5093,7 +4793,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.833</t>
+          <t>Mouse session - Score: 0.602</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -5103,25 +4803,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MOUSE_20260708_003</t>
+          <t>MOUSE_20260710_002</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>17:17:52</t>
+          <t>15:44:27</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5130,58 +4830,58 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>7091</v>
+        <v>23696</v>
       </c>
       <c r="L25" t="n">
-        <v>7091</v>
+        <v>23696</v>
       </c>
       <c r="M25" t="n">
-        <v>28171.84</v>
+        <v>7541.17</v>
       </c>
       <c r="N25" t="n">
-        <v>16903.11</v>
+        <v>4524.7</v>
       </c>
       <c r="O25" t="n">
-        <v>11268.74</v>
+        <v>3016.47</v>
       </c>
       <c r="P25" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="R25" t="n">
-        <v>139.24</v>
+        <v>125.36</v>
       </c>
       <c r="S25" t="n">
-        <v>202.33</v>
+        <v>60.15</v>
       </c>
       <c r="T25" t="n">
-        <v>37.23</v>
+        <v>42.29</v>
       </c>
       <c r="U25" t="n">
-        <v>121.4</v>
+        <v>36.09</v>
       </c>
       <c r="V25" t="n">
-        <v>80.93000000000001</v>
+        <v>24.06</v>
       </c>
       <c r="W25" t="n">
-        <v>11.53</v>
+        <v>15.92</v>
       </c>
       <c r="X25" t="n">
-        <v>20.9</v>
+        <v>6.91</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.24</v>
+        <v>125.36</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.833</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-07-09 12:25:07</t>
+          <t>2026-07-11 09:10:53</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5191,7 +4891,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.577</t>
+          <t>Mouse session - Score: 0.633</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5201,7 +4901,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MOUSE_20260709_000</t>
+          <t>MOUSE_20260711_000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5214,12 +4914,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12:25:07</t>
+          <t>09:10:53</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -5228,58 +4928,58 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>25066</v>
+        <v>16323</v>
       </c>
       <c r="L26" t="n">
-        <v>25066</v>
+        <v>16323</v>
       </c>
       <c r="M26" t="n">
-        <v>9211.389999999999</v>
+        <v>20645.33</v>
       </c>
       <c r="N26" t="n">
-        <v>5526.83</v>
+        <v>12387.2</v>
       </c>
       <c r="O26" t="n">
-        <v>3684.56</v>
+        <v>8258.129999999999</v>
       </c>
       <c r="P26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R26" t="n">
-        <v>150.48</v>
+        <v>171.36</v>
       </c>
       <c r="S26" t="n">
-        <v>61.21</v>
+        <v>120.48</v>
       </c>
       <c r="T26" t="n">
-        <v>32.66</v>
+        <v>44.1</v>
       </c>
       <c r="U26" t="n">
-        <v>36.73</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="V26" t="n">
-        <v>24.48</v>
+        <v>48.19</v>
       </c>
       <c r="W26" t="n">
-        <v>20.9</v>
+        <v>2.14</v>
       </c>
       <c r="X26" t="n">
-        <v>15.71</v>
+        <v>13.02</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.48</v>
+        <v>171.36</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.577</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-07-09 11:58:57</t>
+          <t>2026-07-11 17:17:52</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5289,7 +4989,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.576</t>
+          <t>Mouse session - Score: 0.644</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5299,7 +4999,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MOUSE_20260709_001</t>
+          <t>MOUSE_20260711_001</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5312,12 +5012,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11:58:57</t>
+          <t>17:17:52</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5326,58 +5026,58 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>24001</v>
+        <v>19376</v>
       </c>
       <c r="L27" t="n">
-        <v>24001</v>
+        <v>19376</v>
       </c>
       <c r="M27" t="n">
-        <v>11369.29</v>
+        <v>21232.48</v>
       </c>
       <c r="N27" t="n">
-        <v>6821.57</v>
+        <v>12739.49</v>
       </c>
       <c r="O27" t="n">
-        <v>4547.72</v>
+        <v>8492.99</v>
       </c>
       <c r="P27" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q27" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="R27" t="n">
-        <v>117.04</v>
+        <v>149.67</v>
       </c>
       <c r="S27" t="n">
-        <v>97.14</v>
+        <v>141.86</v>
       </c>
       <c r="T27" t="n">
-        <v>46.44</v>
+        <v>29.51</v>
       </c>
       <c r="U27" t="n">
-        <v>58.28</v>
+        <v>85.12</v>
       </c>
       <c r="V27" t="n">
-        <v>38.86</v>
+        <v>56.75</v>
       </c>
       <c r="W27" t="n">
-        <v>15.68</v>
+        <v>12.92</v>
       </c>
       <c r="X27" t="n">
-        <v>20.59</v>
+        <v>24.99</v>
       </c>
       <c r="Y27" t="n">
-        <v>117.04</v>
+        <v>149.67</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.576</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-07-09 09:20:11</t>
+          <t>2026-07-11 09:21:17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5387,7 +5087,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.456</t>
+          <t>Mouse session - Score: 0.565</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5397,7 +5097,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MOUSE_20260709_002</t>
+          <t>MOUSE_20260711_002</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5410,12 +5110,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-11</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>09:20:11</t>
+          <t>09:21:17</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -5424,58 +5124,58 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>29952</v>
+        <v>7115</v>
       </c>
       <c r="L28" t="n">
-        <v>29952</v>
+        <v>7115</v>
       </c>
       <c r="M28" t="n">
-        <v>33344.52</v>
+        <v>33384.31</v>
       </c>
       <c r="N28" t="n">
-        <v>20006.71</v>
+        <v>20030.58</v>
       </c>
       <c r="O28" t="n">
-        <v>13337.81</v>
+        <v>13353.72</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="R28" t="n">
-        <v>33.94</v>
+        <v>124.61</v>
       </c>
       <c r="S28" t="n">
-        <v>982.33</v>
+        <v>267.92</v>
       </c>
       <c r="T28" t="n">
-        <v>20.81</v>
+        <v>27.77</v>
       </c>
       <c r="U28" t="n">
-        <v>589.4</v>
+        <v>160.75</v>
       </c>
       <c r="V28" t="n">
-        <v>392.93</v>
+        <v>107.17</v>
       </c>
       <c r="W28" t="n">
-        <v>28.2</v>
+        <v>2.78</v>
       </c>
       <c r="X28" t="n">
-        <v>7.34</v>
+        <v>29.17</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.94</v>
+        <v>124.61</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.456</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-07-09 12:47:59</t>
+          <t>2026-07-13 09:54:30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5485,7 +5185,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.598</t>
+          <t>Mouse session - Score: 0.462</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5495,7 +5195,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MOUSE_20260709_003</t>
+          <t>MOUSE_20260713_000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5508,12 +5208,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>12:47:59</t>
+          <t>09:54:30</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5522,58 +5222,58 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>8745</v>
+        <v>26913</v>
       </c>
       <c r="L29" t="n">
-        <v>8745</v>
+        <v>26913</v>
       </c>
       <c r="M29" t="n">
-        <v>6511.79</v>
+        <v>12515.18</v>
       </c>
       <c r="N29" t="n">
-        <v>3907.07</v>
+        <v>7509.11</v>
       </c>
       <c r="O29" t="n">
-        <v>2604.71</v>
+        <v>5006.07</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R29" t="n">
-        <v>119.17</v>
+        <v>77.94</v>
       </c>
       <c r="S29" t="n">
-        <v>54.64</v>
+        <v>160.57</v>
       </c>
       <c r="T29" t="n">
-        <v>35.26</v>
+        <v>10.03</v>
       </c>
       <c r="U29" t="n">
-        <v>32.79</v>
+        <v>96.34</v>
       </c>
       <c r="V29" t="n">
-        <v>21.86</v>
+        <v>64.23</v>
       </c>
       <c r="W29" t="n">
-        <v>2.88</v>
+        <v>17.54</v>
       </c>
       <c r="X29" t="n">
-        <v>20.16</v>
+        <v>14.19</v>
       </c>
       <c r="Y29" t="n">
-        <v>119.17</v>
+        <v>77.94</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.598</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-07-10 15:33:34</t>
+          <t>2026-07-13 15:39:31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5583,7 +5283,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.522</t>
+          <t>Mouse session - Score: 0.851</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5593,25 +5293,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MOUSE_20260710_000</t>
+          <t>MOUSE_20260713_001</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>INFO</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>15:33:34</t>
+          <t>15:39:31</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5620,58 +5320,58 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>26898</v>
+        <v>21406</v>
       </c>
       <c r="L30" t="n">
-        <v>26898</v>
+        <v>21406</v>
       </c>
       <c r="M30" t="n">
-        <v>13337.78</v>
+        <v>28341.32</v>
       </c>
       <c r="N30" t="n">
-        <v>8002.67</v>
+        <v>17004.79</v>
       </c>
       <c r="O30" t="n">
-        <v>5335.11</v>
+        <v>11336.53</v>
       </c>
       <c r="P30" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="Q30" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="R30" t="n">
-        <v>76.27</v>
+        <v>48.16</v>
       </c>
       <c r="S30" t="n">
-        <v>174.88</v>
+        <v>588.54</v>
       </c>
       <c r="T30" t="n">
-        <v>37.35</v>
+        <v>6.77</v>
       </c>
       <c r="U30" t="n">
-        <v>104.93</v>
+        <v>353.13</v>
       </c>
       <c r="V30" t="n">
-        <v>69.95</v>
+        <v>235.42</v>
       </c>
       <c r="W30" t="n">
-        <v>29.19</v>
+        <v>13.96</v>
       </c>
       <c r="X30" t="n">
-        <v>20.04</v>
+        <v>5.89</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.27</v>
+        <v>48.16</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.522</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-07-10 13:27:22</t>
+          <t>2026-07-13 15:20:53</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5681,7 +5381,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.506</t>
+          <t>Mouse session - Score: 0.574</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5691,7 +5391,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MOUSE_20260710_001</t>
+          <t>MOUSE_20260713_002</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5704,12 +5404,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13:27:22</t>
+          <t>15:20:53</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5718,58 +5418,58 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>16147</v>
+        <v>20705</v>
       </c>
       <c r="L31" t="n">
-        <v>16147</v>
+        <v>20705</v>
       </c>
       <c r="M31" t="n">
-        <v>33416.21</v>
+        <v>5203.81</v>
       </c>
       <c r="N31" t="n">
-        <v>20049.72</v>
+        <v>3122.28</v>
       </c>
       <c r="O31" t="n">
-        <v>13366.48</v>
+        <v>2081.52</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="Q31" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="R31" t="n">
-        <v>112.86</v>
+        <v>127.79</v>
       </c>
       <c r="S31" t="n">
-        <v>296.08</v>
+        <v>40.72</v>
       </c>
       <c r="T31" t="n">
-        <v>9.289999999999999</v>
+        <v>11.87</v>
       </c>
       <c r="U31" t="n">
-        <v>177.65</v>
+        <v>24.43</v>
       </c>
       <c r="V31" t="n">
-        <v>118.43</v>
+        <v>16.29</v>
       </c>
       <c r="W31" t="n">
-        <v>15.28</v>
+        <v>10.25</v>
       </c>
       <c r="X31" t="n">
-        <v>7.81</v>
+        <v>29.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.86</v>
+        <v>127.79</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.506</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-07-10 09:16:51</t>
+          <t>2026-07-14 10:11:34</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5779,7 +5479,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.508</t>
+          <t>Mouse session - Score: 0.581</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5789,7 +5489,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MOUSE_20260710_002</t>
+          <t>MOUSE_20260714_000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5802,12 +5502,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>09:16:51</t>
+          <t>10:11:34</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5816,58 +5516,58 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>26931</v>
+        <v>17597</v>
       </c>
       <c r="L32" t="n">
-        <v>26931</v>
+        <v>17597</v>
       </c>
       <c r="M32" t="n">
-        <v>35781.89</v>
+        <v>19831.64</v>
       </c>
       <c r="N32" t="n">
-        <v>21469.13</v>
+        <v>11898.98</v>
       </c>
       <c r="O32" t="n">
-        <v>14312.76</v>
+        <v>7932.65</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="R32" t="n">
-        <v>105.11</v>
+        <v>76.16</v>
       </c>
       <c r="S32" t="n">
-        <v>340.43</v>
+        <v>260.38</v>
       </c>
       <c r="T32" t="n">
-        <v>25.77</v>
+        <v>45.85</v>
       </c>
       <c r="U32" t="n">
-        <v>204.26</v>
+        <v>156.23</v>
       </c>
       <c r="V32" t="n">
-        <v>136.17</v>
+        <v>104.15</v>
       </c>
       <c r="W32" t="n">
-        <v>3.08</v>
+        <v>26.12</v>
       </c>
       <c r="X32" t="n">
-        <v>6.4</v>
+        <v>28.19</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.11</v>
+        <v>76.16</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.508</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-07-10 16:25:25</t>
+          <t>2026-07-14 13:07:43</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5877,7 +5577,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.605</t>
+          <t>Mouse session - Score: 0.475</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5887,7 +5587,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MOUSE_20260710_003</t>
+          <t>MOUSE_20260714_001</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5900,12 +5600,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>16:25:25</t>
+          <t>13:07:43</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5914,58 +5614,58 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>27568</v>
+        <v>11007</v>
       </c>
       <c r="L33" t="n">
-        <v>27568</v>
+        <v>11007</v>
       </c>
       <c r="M33" t="n">
-        <v>39904.98</v>
+        <v>17923</v>
       </c>
       <c r="N33" t="n">
-        <v>23942.99</v>
+        <v>10753.8</v>
       </c>
       <c r="O33" t="n">
-        <v>15961.99</v>
+        <v>7169.2</v>
       </c>
       <c r="P33" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R33" t="n">
-        <v>80.06999999999999</v>
+        <v>165.43</v>
       </c>
       <c r="S33" t="n">
-        <v>498.35</v>
+        <v>108.34</v>
       </c>
       <c r="T33" t="n">
-        <v>21.18</v>
+        <v>32.28</v>
       </c>
       <c r="U33" t="n">
-        <v>299.01</v>
+        <v>65.01000000000001</v>
       </c>
       <c r="V33" t="n">
-        <v>199.34</v>
+        <v>43.34</v>
       </c>
       <c r="W33" t="n">
-        <v>18.82</v>
+        <v>2.43</v>
       </c>
       <c r="X33" t="n">
-        <v>16.86</v>
+        <v>23.51</v>
       </c>
       <c r="Y33" t="n">
-        <v>80.06999999999999</v>
+        <v>165.43</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.605</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-07-12 09:06:34</t>
+          <t>2026-07-14 16:10:23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5975,7 +5675,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.474</t>
+          <t>Mouse session - Score: 0.633</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5985,7 +5685,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MOUSE_20260712_000</t>
+          <t>MOUSE_20260714_002</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5998,12 +5698,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>09:06:34</t>
+          <t>16:10:23</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6012,58 +5712,58 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>9700</v>
+        <v>25614</v>
       </c>
       <c r="L34" t="n">
-        <v>9700</v>
+        <v>25614</v>
       </c>
       <c r="M34" t="n">
-        <v>17209.19</v>
+        <v>38464.64</v>
       </c>
       <c r="N34" t="n">
-        <v>10325.51</v>
+        <v>23078.79</v>
       </c>
       <c r="O34" t="n">
-        <v>6883.67</v>
+        <v>15385.86</v>
       </c>
       <c r="P34" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q34" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R34" t="n">
-        <v>143.28</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="S34" t="n">
-        <v>120.11</v>
+        <v>536.38</v>
       </c>
       <c r="T34" t="n">
-        <v>22.88</v>
+        <v>9.76</v>
       </c>
       <c r="U34" t="n">
-        <v>72.06999999999999</v>
+        <v>321.83</v>
       </c>
       <c r="V34" t="n">
-        <v>48.04</v>
+        <v>214.55</v>
       </c>
       <c r="W34" t="n">
-        <v>14.99</v>
+        <v>24.39</v>
       </c>
       <c r="X34" t="n">
-        <v>18.9</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.28</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.474</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-07-12 10:05:36</t>
+          <t>2026-07-15 14:49:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6073,7 +5773,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.550</t>
+          <t>Mouse session - Score: 0.600</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6083,7 +5783,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MOUSE_20260712_001</t>
+          <t>MOUSE_20260715_000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6096,12 +5796,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10:05:36</t>
+          <t>14:49:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6110,58 +5810,58 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>19775</v>
+        <v>18069</v>
       </c>
       <c r="L35" t="n">
-        <v>19775</v>
+        <v>18069</v>
       </c>
       <c r="M35" t="n">
-        <v>9627.42</v>
+        <v>33271.47</v>
       </c>
       <c r="N35" t="n">
-        <v>5776.45</v>
+        <v>19962.88</v>
       </c>
       <c r="O35" t="n">
-        <v>3850.97</v>
+        <v>13308.59</v>
       </c>
       <c r="P35" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="R35" t="n">
-        <v>117.46</v>
+        <v>111.89</v>
       </c>
       <c r="S35" t="n">
-        <v>81.97</v>
+        <v>297.36</v>
       </c>
       <c r="T35" t="n">
-        <v>47.16</v>
+        <v>12.57</v>
       </c>
       <c r="U35" t="n">
-        <v>49.18</v>
+        <v>178.42</v>
       </c>
       <c r="V35" t="n">
-        <v>32.79</v>
+        <v>118.94</v>
       </c>
       <c r="W35" t="n">
-        <v>25.54</v>
+        <v>2.12</v>
       </c>
       <c r="X35" t="n">
-        <v>2.36</v>
+        <v>8.15</v>
       </c>
       <c r="Y35" t="n">
-        <v>117.46</v>
+        <v>111.89</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-07-12 15:06:06</t>
+          <t>2026-07-15 13:09:08</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6171,7 +5871,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.579</t>
+          <t>Mouse session - Score: 0.491</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6181,7 +5881,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MOUSE_20260712_002</t>
+          <t>MOUSE_20260715_001</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6194,12 +5894,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>15:06:06</t>
+          <t>13:09:08</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6208,58 +5908,58 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>8469</v>
+        <v>7826</v>
       </c>
       <c r="L36" t="n">
-        <v>8469</v>
+        <v>7826</v>
       </c>
       <c r="M36" t="n">
-        <v>21939.83</v>
+        <v>15284.16</v>
       </c>
       <c r="N36" t="n">
-        <v>13163.9</v>
+        <v>9170.5</v>
       </c>
       <c r="O36" t="n">
-        <v>8775.93</v>
+        <v>6113.67</v>
       </c>
       <c r="P36" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R36" t="n">
-        <v>63.87</v>
+        <v>46.3</v>
       </c>
       <c r="S36" t="n">
-        <v>343.51</v>
+        <v>330.14</v>
       </c>
       <c r="T36" t="n">
-        <v>8.779999999999999</v>
+        <v>13.78</v>
       </c>
       <c r="U36" t="n">
-        <v>206.1</v>
+        <v>198.08</v>
       </c>
       <c r="V36" t="n">
-        <v>137.4</v>
+        <v>132.06</v>
       </c>
       <c r="W36" t="n">
-        <v>5.9</v>
+        <v>6.51</v>
       </c>
       <c r="X36" t="n">
-        <v>22.81</v>
+        <v>6.75</v>
       </c>
       <c r="Y36" t="n">
-        <v>63.87</v>
+        <v>46.3</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.579</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-07-12 15:17:23</t>
+          <t>2026-07-15 17:29:35</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -6269,7 +5969,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.916</t>
+          <t>Mouse session - Score: 0.601</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6279,25 +5979,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MOUSE_20260712_003</t>
+          <t>MOUSE_20260715_002</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>INFO</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-07-12</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>15:17:23</t>
+          <t>17:29:35</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6306,58 +6006,58 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>27565</v>
+        <v>29394</v>
       </c>
       <c r="L37" t="n">
-        <v>27565</v>
+        <v>29394</v>
       </c>
       <c r="M37" t="n">
-        <v>16163.05</v>
+        <v>21591.45</v>
       </c>
       <c r="N37" t="n">
-        <v>9697.83</v>
+        <v>12954.87</v>
       </c>
       <c r="O37" t="n">
-        <v>6465.22</v>
+        <v>8636.58</v>
       </c>
       <c r="P37" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Q37" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R37" t="n">
-        <v>136.16</v>
+        <v>35.84</v>
       </c>
       <c r="S37" t="n">
-        <v>118.71</v>
+        <v>602.38</v>
       </c>
       <c r="T37" t="n">
-        <v>20.62</v>
+        <v>10.1</v>
       </c>
       <c r="U37" t="n">
-        <v>71.22</v>
+        <v>361.43</v>
       </c>
       <c r="V37" t="n">
-        <v>47.48</v>
+        <v>240.95</v>
       </c>
       <c r="W37" t="n">
-        <v>27.14</v>
+        <v>7.8</v>
       </c>
       <c r="X37" t="n">
-        <v>28.54</v>
+        <v>23.1</v>
       </c>
       <c r="Y37" t="n">
-        <v>136.16</v>
+        <v>35.84</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.916</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-07-13 15:27:33</t>
+          <t>2026-07-16 15:52:19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -6367,7 +6067,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.502</t>
+          <t>Mouse session - Score: 0.589</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6377,7 +6077,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MOUSE_20260713_000</t>
+          <t>MOUSE_20260716_000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6390,12 +6090,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>15:27:33</t>
+          <t>15:52:19</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6404,58 +6104,58 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>11323</v>
+        <v>23234</v>
       </c>
       <c r="L38" t="n">
-        <v>11323</v>
+        <v>23234</v>
       </c>
       <c r="M38" t="n">
-        <v>34883.56</v>
+        <v>23818.22</v>
       </c>
       <c r="N38" t="n">
-        <v>20930.13</v>
+        <v>14290.93</v>
       </c>
       <c r="O38" t="n">
-        <v>13953.42</v>
+        <v>9527.290000000001</v>
       </c>
       <c r="P38" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q38" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R38" t="n">
-        <v>37.47</v>
+        <v>111.03</v>
       </c>
       <c r="S38" t="n">
-        <v>930.9299999999999</v>
+        <v>214.53</v>
       </c>
       <c r="T38" t="n">
-        <v>15.56</v>
+        <v>17.68</v>
       </c>
       <c r="U38" t="n">
-        <v>558.5599999999999</v>
+        <v>128.72</v>
       </c>
       <c r="V38" t="n">
-        <v>372.37</v>
+        <v>85.81</v>
       </c>
       <c r="W38" t="n">
-        <v>15.91</v>
+        <v>22.82</v>
       </c>
       <c r="X38" t="n">
-        <v>2.55</v>
+        <v>18.48</v>
       </c>
       <c r="Y38" t="n">
-        <v>37.47</v>
+        <v>111.03</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.502</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-07-13 17:34:09</t>
+          <t>2026-07-16 09:40:13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -6465,7 +6165,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.903</t>
+          <t>Mouse session - Score: 0.888</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6475,7 +6175,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MOUSE_20260713_001</t>
+          <t>MOUSE_20260716_001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6488,12 +6188,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>17:34:09</t>
+          <t>09:40:13</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -6502,58 +6202,58 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>10546</v>
+        <v>28932</v>
       </c>
       <c r="L39" t="n">
-        <v>10546</v>
+        <v>28932</v>
       </c>
       <c r="M39" t="n">
-        <v>20701.83</v>
+        <v>35284.85</v>
       </c>
       <c r="N39" t="n">
-        <v>12421.1</v>
+        <v>21170.91</v>
       </c>
       <c r="O39" t="n">
-        <v>8280.73</v>
+        <v>14113.94</v>
       </c>
       <c r="P39" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="Q39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R39" t="n">
-        <v>95.05</v>
+        <v>166.34</v>
       </c>
       <c r="S39" t="n">
-        <v>217.81</v>
+        <v>212.12</v>
       </c>
       <c r="T39" t="n">
-        <v>12.81</v>
+        <v>9.74</v>
       </c>
       <c r="U39" t="n">
-        <v>130.68</v>
+        <v>127.27</v>
       </c>
       <c r="V39" t="n">
-        <v>87.12</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="W39" t="n">
-        <v>9.81</v>
+        <v>25.68</v>
       </c>
       <c r="X39" t="n">
-        <v>14.56</v>
+        <v>28.34</v>
       </c>
       <c r="Y39" t="n">
-        <v>95.05</v>
+        <v>166.34</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.903</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-07-13 10:15:58</t>
+          <t>2026-07-16 13:36:41</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6563,7 +6263,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.591</t>
+          <t>Mouse session - Score: 0.633</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6573,7 +6273,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MOUSE_20260713_002</t>
+          <t>MOUSE_20260716_002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6586,12 +6286,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10:15:58</t>
+          <t>13:36:41</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -6600,58 +6300,58 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>11590</v>
+        <v>19366</v>
       </c>
       <c r="L40" t="n">
-        <v>11590</v>
+        <v>19366</v>
       </c>
       <c r="M40" t="n">
-        <v>17285.56</v>
+        <v>26710.56</v>
       </c>
       <c r="N40" t="n">
-        <v>10371.33</v>
+        <v>16026.34</v>
       </c>
       <c r="O40" t="n">
-        <v>6914.22</v>
+        <v>10684.23</v>
       </c>
       <c r="P40" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="Q40" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
-        <v>140.64</v>
+        <v>112.4</v>
       </c>
       <c r="S40" t="n">
-        <v>122.91</v>
+        <v>237.64</v>
       </c>
       <c r="T40" t="n">
-        <v>25.82</v>
+        <v>42.47</v>
       </c>
       <c r="U40" t="n">
-        <v>73.75</v>
+        <v>142.59</v>
       </c>
       <c r="V40" t="n">
-        <v>49.16</v>
+        <v>95.06</v>
       </c>
       <c r="W40" t="n">
-        <v>27.12</v>
+        <v>19.82</v>
       </c>
       <c r="X40" t="n">
-        <v>16.94</v>
+        <v>12.47</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.64</v>
+        <v>112.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.591</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-07-13 13:35:49</t>
+          <t>2026-07-17 17:01:28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6661,7 +6361,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.648</t>
+          <t>Mouse session - Score: 0.495</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -6671,7 +6371,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MOUSE_20260713_003</t>
+          <t>MOUSE_20260717_000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6684,12 +6384,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>13:35:49</t>
+          <t>17:01:28</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -6698,58 +6398,58 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>7828</v>
+        <v>11094</v>
       </c>
       <c r="L41" t="n">
-        <v>7828</v>
+        <v>11094</v>
       </c>
       <c r="M41" t="n">
-        <v>26885.59</v>
+        <v>13319.56</v>
       </c>
       <c r="N41" t="n">
-        <v>16131.36</v>
+        <v>7991.74</v>
       </c>
       <c r="O41" t="n">
-        <v>10754.24</v>
+        <v>5327.83</v>
       </c>
       <c r="P41" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="Q41" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>128.89</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="S41" t="n">
-        <v>208.59</v>
+        <v>164.74</v>
       </c>
       <c r="T41" t="n">
-        <v>38.54</v>
+        <v>23</v>
       </c>
       <c r="U41" t="n">
-        <v>125.15</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="V41" t="n">
-        <v>83.44</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="W41" t="n">
-        <v>10.84</v>
+        <v>18.96</v>
       </c>
       <c r="X41" t="n">
-        <v>25.16</v>
+        <v>27.19</v>
       </c>
       <c r="Y41" t="n">
-        <v>128.89</v>
+        <v>80.84999999999999</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.648</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-07-14 11:03:55</t>
+          <t>2026-07-17 16:01:11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6759,7 +6459,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.537</t>
+          <t>Mouse session - Score: 0.588</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -6769,7 +6469,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MOUSE_20260714_000</t>
+          <t>MOUSE_20260717_001</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -6782,12 +6482,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>11:03:55</t>
+          <t>16:01:11</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -6796,58 +6496,58 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>16184</v>
+        <v>7607</v>
       </c>
       <c r="L42" t="n">
-        <v>16184</v>
+        <v>7607</v>
       </c>
       <c r="M42" t="n">
-        <v>26992.17</v>
+        <v>31129.73</v>
       </c>
       <c r="N42" t="n">
-        <v>16195.3</v>
+        <v>18677.84</v>
       </c>
       <c r="O42" t="n">
-        <v>10796.87</v>
+        <v>12451.89</v>
       </c>
       <c r="P42" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="Q42" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R42" t="n">
-        <v>97.69</v>
+        <v>151.9</v>
       </c>
       <c r="S42" t="n">
-        <v>276.31</v>
+        <v>204.94</v>
       </c>
       <c r="T42" t="n">
-        <v>32.69</v>
+        <v>41.06</v>
       </c>
       <c r="U42" t="n">
-        <v>165.79</v>
+        <v>122.96</v>
       </c>
       <c r="V42" t="n">
-        <v>110.53</v>
+        <v>81.98</v>
       </c>
       <c r="W42" t="n">
-        <v>29.53</v>
+        <v>16.46</v>
       </c>
       <c r="X42" t="n">
-        <v>16.49</v>
+        <v>9.09</v>
       </c>
       <c r="Y42" t="n">
-        <v>97.69</v>
+        <v>151.9</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.537</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-07-14 13:30:01</t>
+          <t>2026-07-17 10:07:46</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6857,7 +6557,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.583</t>
+          <t>Mouse session - Score: 0.630</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -6867,7 +6567,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MOUSE_20260714_001</t>
+          <t>MOUSE_20260717_002</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -6880,12 +6580,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>13:30:01</t>
+          <t>10:07:46</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -6894,58 +6594,58 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>11504</v>
+        <v>7288</v>
       </c>
       <c r="L43" t="n">
-        <v>11504</v>
+        <v>7288</v>
       </c>
       <c r="M43" t="n">
-        <v>22937.02</v>
+        <v>34591.2</v>
       </c>
       <c r="N43" t="n">
-        <v>13762.21</v>
+        <v>20754.72</v>
       </c>
       <c r="O43" t="n">
-        <v>9174.809999999999</v>
+        <v>13836.48</v>
       </c>
       <c r="P43" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="R43" t="n">
-        <v>165.03</v>
+        <v>74.72</v>
       </c>
       <c r="S43" t="n">
-        <v>138.98</v>
+        <v>462.94</v>
       </c>
       <c r="T43" t="n">
-        <v>9.67</v>
+        <v>18.94</v>
       </c>
       <c r="U43" t="n">
-        <v>83.39</v>
+        <v>277.77</v>
       </c>
       <c r="V43" t="n">
-        <v>55.59</v>
+        <v>185.18</v>
       </c>
       <c r="W43" t="n">
-        <v>9.33</v>
+        <v>4.91</v>
       </c>
       <c r="X43" t="n">
-        <v>3.04</v>
+        <v>14.05</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.03</v>
+        <v>74.72</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.583</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-07-14 10:23:29</t>
+          <t>2026-07-18 17:57:48</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6955,7 +6655,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.632</t>
+          <t>Mouse session - Score: 0.570</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -6965,7 +6665,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MOUSE_20260714_002</t>
+          <t>MOUSE_20260718_000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -6978,12 +6678,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10:23:29</t>
+          <t>17:57:48</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -6992,58 +6692,58 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>22273</v>
+        <v>5041</v>
       </c>
       <c r="L44" t="n">
-        <v>22273</v>
+        <v>5041</v>
       </c>
       <c r="M44" t="n">
-        <v>24427.21</v>
+        <v>9655.42</v>
       </c>
       <c r="N44" t="n">
-        <v>14656.33</v>
+        <v>5793.25</v>
       </c>
       <c r="O44" t="n">
-        <v>9770.889999999999</v>
+        <v>3862.17</v>
       </c>
       <c r="P44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q44" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="R44" t="n">
-        <v>116.48</v>
+        <v>122.56</v>
       </c>
       <c r="S44" t="n">
-        <v>209.72</v>
+        <v>78.78</v>
       </c>
       <c r="T44" t="n">
-        <v>46.95</v>
+        <v>7.54</v>
       </c>
       <c r="U44" t="n">
-        <v>125.83</v>
+        <v>47.27</v>
       </c>
       <c r="V44" t="n">
-        <v>83.89</v>
+        <v>31.51</v>
       </c>
       <c r="W44" t="n">
-        <v>15.19</v>
+        <v>15.71</v>
       </c>
       <c r="X44" t="n">
-        <v>18.66</v>
+        <v>18.04</v>
       </c>
       <c r="Y44" t="n">
-        <v>116.48</v>
+        <v>122.56</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.632</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-07-14 14:25:47</t>
+          <t>2026-07-18 11:56:36</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -7053,7 +6753,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.572</t>
+          <t>Mouse session - Score: 0.626</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7063,7 +6763,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MOUSE_20260714_003</t>
+          <t>MOUSE_20260718_001</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -7076,12 +6776,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>14:25:47</t>
+          <t>11:56:36</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -7090,58 +6790,58 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>28484</v>
+        <v>22693</v>
       </c>
       <c r="L45" t="n">
-        <v>28484</v>
+        <v>22693</v>
       </c>
       <c r="M45" t="n">
-        <v>17948.19</v>
+        <v>25249.31</v>
       </c>
       <c r="N45" t="n">
-        <v>10768.91</v>
+        <v>15149.59</v>
       </c>
       <c r="O45" t="n">
-        <v>7179.28</v>
+        <v>10099.73</v>
       </c>
       <c r="P45" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="R45" t="n">
-        <v>63.19</v>
+        <v>123.68</v>
       </c>
       <c r="S45" t="n">
-        <v>284.03</v>
+        <v>204.15</v>
       </c>
       <c r="T45" t="n">
-        <v>12.59</v>
+        <v>31.86</v>
       </c>
       <c r="U45" t="n">
-        <v>170.42</v>
+        <v>122.49</v>
       </c>
       <c r="V45" t="n">
-        <v>113.61</v>
+        <v>81.66</v>
       </c>
       <c r="W45" t="n">
-        <v>16.94</v>
+        <v>19.93</v>
       </c>
       <c r="X45" t="n">
-        <v>5.73</v>
+        <v>27.71</v>
       </c>
       <c r="Y45" t="n">
-        <v>63.19</v>
+        <v>123.68</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.572</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-07-15 13:36:41</t>
+          <t>2026-07-18 15:57:27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -7151,7 +6851,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mouse session - Score: 0.588</t>
+          <t>Mouse session - Score: 0.494</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7161,7 +6861,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MOUSE_20260715_000</t>
+          <t>MOUSE_20260718_002</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -7174,12 +6874,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-18</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>13:36:41</t>
+          <t>15:57:27</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -7188,1522 +6888,52 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>24564</v>
+        <v>27001</v>
       </c>
       <c r="L46" t="n">
-        <v>24564</v>
+        <v>27001</v>
       </c>
       <c r="M46" t="n">
-        <v>33796.25</v>
+        <v>21624.85</v>
       </c>
       <c r="N46" t="n">
-        <v>20277.75</v>
+        <v>12974.91</v>
       </c>
       <c r="O46" t="n">
-        <v>13518.5</v>
+        <v>8649.940000000001</v>
       </c>
       <c r="P46" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="R46" t="n">
-        <v>175.98</v>
+        <v>108.83</v>
       </c>
       <c r="S46" t="n">
-        <v>192.05</v>
+        <v>198.71</v>
       </c>
       <c r="T46" t="n">
-        <v>27.84</v>
+        <v>10.61</v>
       </c>
       <c r="U46" t="n">
-        <v>115.23</v>
+        <v>119.22</v>
       </c>
       <c r="V46" t="n">
-        <v>76.81999999999999</v>
+        <v>79.48</v>
       </c>
       <c r="W46" t="n">
-        <v>25.94</v>
+        <v>27.52</v>
       </c>
       <c r="X46" t="n">
-        <v>20.49</v>
+        <v>21.65</v>
       </c>
       <c r="Y46" t="n">
-        <v>175.98</v>
+        <v>108.83</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.588</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2026-07-15 14:05:08</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.500</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>MOUSE_20260715_001</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2026-07-15</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>14:05:08</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>28535</v>
-      </c>
-      <c r="L47" t="n">
-        <v>28535</v>
-      </c>
-      <c r="M47" t="n">
-        <v>31513.15</v>
-      </c>
-      <c r="N47" t="n">
-        <v>18907.89</v>
-      </c>
-      <c r="O47" t="n">
-        <v>12605.26</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>12</v>
-      </c>
-      <c r="R47" t="n">
-        <v>102.65</v>
-      </c>
-      <c r="S47" t="n">
-        <v>307.01</v>
-      </c>
-      <c r="T47" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="U47" t="n">
-        <v>184.2</v>
-      </c>
-      <c r="V47" t="n">
-        <v>122.8</v>
-      </c>
-      <c r="W47" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="X47" t="n">
-        <v>29.27</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>102.65</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2026-07-15 10:14:42</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.499</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>MOUSE_20260715_002</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2026-07-15</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10:14:42</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>29503</v>
-      </c>
-      <c r="L48" t="n">
-        <v>29503</v>
-      </c>
-      <c r="M48" t="n">
-        <v>10326.06</v>
-      </c>
-      <c r="N48" t="n">
-        <v>6195.64</v>
-      </c>
-      <c r="O48" t="n">
-        <v>4130.42</v>
-      </c>
-      <c r="P48" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>22</v>
-      </c>
-      <c r="R48" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="S48" t="n">
-        <v>96.78</v>
-      </c>
-      <c r="T48" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="U48" t="n">
-        <v>58.07</v>
-      </c>
-      <c r="V48" t="n">
-        <v>38.71</v>
-      </c>
-      <c r="W48" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="X48" t="n">
-        <v>27.14</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0.499</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2026-07-15 11:46:00</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.831</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>MOUSE_20260715_003</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2026-07-15</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>11:46:00</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>22177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>22177</v>
-      </c>
-      <c r="M49" t="n">
-        <v>13125.88</v>
-      </c>
-      <c r="N49" t="n">
-        <v>7875.53</v>
-      </c>
-      <c r="O49" t="n">
-        <v>5250.35</v>
-      </c>
-      <c r="P49" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>117.48</v>
-      </c>
-      <c r="S49" t="n">
-        <v>111.73</v>
-      </c>
-      <c r="T49" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="U49" t="n">
-        <v>67.04000000000001</v>
-      </c>
-      <c r="V49" t="n">
-        <v>44.69</v>
-      </c>
-      <c r="W49" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="X49" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>117.48</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0.831</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2026-07-16 11:21:42</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.535</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>MOUSE_20260716_000</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2026-07-16</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>11:21:42</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>20025</v>
-      </c>
-      <c r="L50" t="n">
-        <v>20025</v>
-      </c>
-      <c r="M50" t="n">
-        <v>10555.86</v>
-      </c>
-      <c r="N50" t="n">
-        <v>6333.52</v>
-      </c>
-      <c r="O50" t="n">
-        <v>4222.35</v>
-      </c>
-      <c r="P50" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>17</v>
-      </c>
-      <c r="R50" t="n">
-        <v>109.27</v>
-      </c>
-      <c r="S50" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="T50" t="n">
-        <v>48.23</v>
-      </c>
-      <c r="U50" t="n">
-        <v>57.96</v>
-      </c>
-      <c r="V50" t="n">
-        <v>38.64</v>
-      </c>
-      <c r="W50" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="X50" t="n">
-        <v>22.34</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>109.27</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0.535</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2026-07-16 14:37:59</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.601</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>MOUSE_20260716_001</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2026-07-16</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>14:37:59</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>12222</v>
-      </c>
-      <c r="L51" t="n">
-        <v>12222</v>
-      </c>
-      <c r="M51" t="n">
-        <v>20802.27</v>
-      </c>
-      <c r="N51" t="n">
-        <v>12481.36</v>
-      </c>
-      <c r="O51" t="n">
-        <v>8320.91</v>
-      </c>
-      <c r="P51" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>9</v>
-      </c>
-      <c r="R51" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>135.52</v>
-      </c>
-      <c r="T51" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="U51" t="n">
-        <v>81.31</v>
-      </c>
-      <c r="V51" t="n">
-        <v>54.21</v>
-      </c>
-      <c r="W51" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="X51" t="n">
-        <v>24.01</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>0.601</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2026-07-16 14:09:31</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.575</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>MOUSE_20260716_002</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2026-07-16</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>14:09:31</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>9191</v>
-      </c>
-      <c r="L52" t="n">
-        <v>9191</v>
-      </c>
-      <c r="M52" t="n">
-        <v>36422.53</v>
-      </c>
-      <c r="N52" t="n">
-        <v>21853.52</v>
-      </c>
-      <c r="O52" t="n">
-        <v>14569.01</v>
-      </c>
-      <c r="P52" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>12</v>
-      </c>
-      <c r="R52" t="n">
-        <v>139.14</v>
-      </c>
-      <c r="S52" t="n">
-        <v>261.77</v>
-      </c>
-      <c r="T52" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="U52" t="n">
-        <v>157.06</v>
-      </c>
-      <c r="V52" t="n">
-        <v>104.71</v>
-      </c>
-      <c r="W52" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="X52" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>139.14</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>0.575</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2026-07-16 15:14:23</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.638</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>MOUSE_20260716_003</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2026-07-16</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>15:14:23</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>12814</v>
-      </c>
-      <c r="L53" t="n">
-        <v>12814</v>
-      </c>
-      <c r="M53" t="n">
-        <v>37355.22</v>
-      </c>
-      <c r="N53" t="n">
-        <v>22413.13</v>
-      </c>
-      <c r="O53" t="n">
-        <v>14942.09</v>
-      </c>
-      <c r="P53" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>20</v>
-      </c>
-      <c r="R53" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1020.74</v>
-      </c>
-      <c r="T53" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="U53" t="n">
-        <v>612.4400000000001</v>
-      </c>
-      <c r="V53" t="n">
-        <v>408.3</v>
-      </c>
-      <c r="W53" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="X53" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>0.638</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2026-07-17 09:32:16</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.524</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>MOUSE_20260717_000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2026-07-17</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>09:32:16</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>17586</v>
-      </c>
-      <c r="L54" t="n">
-        <v>17586</v>
-      </c>
-      <c r="M54" t="n">
-        <v>29179.92</v>
-      </c>
-      <c r="N54" t="n">
-        <v>17507.95</v>
-      </c>
-      <c r="O54" t="n">
-        <v>11671.97</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>11</v>
-      </c>
-      <c r="R54" t="n">
-        <v>91.06</v>
-      </c>
-      <c r="S54" t="n">
-        <v>320.45</v>
-      </c>
-      <c r="T54" t="n">
-        <v>47.21</v>
-      </c>
-      <c r="U54" t="n">
-        <v>192.27</v>
-      </c>
-      <c r="V54" t="n">
-        <v>128.18</v>
-      </c>
-      <c r="W54" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="X54" t="n">
-        <v>23.51</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>91.06</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0.524</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2026-07-17 16:26:51</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.615</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>MOUSE_20260717_001</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2026-07-17</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>16:26:51</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>6699</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6699</v>
-      </c>
-      <c r="M55" t="n">
-        <v>17386.09</v>
-      </c>
-      <c r="N55" t="n">
-        <v>10431.65</v>
-      </c>
-      <c r="O55" t="n">
-        <v>6954.43</v>
-      </c>
-      <c r="P55" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="n">
-        <v>51.55</v>
-      </c>
-      <c r="S55" t="n">
-        <v>337.23</v>
-      </c>
-      <c r="T55" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="U55" t="n">
-        <v>202.34</v>
-      </c>
-      <c r="V55" t="n">
-        <v>134.89</v>
-      </c>
-      <c r="W55" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="X55" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>51.55</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0.615</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2026-07-17 14:07:12</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.620</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>MOUSE_20260717_002</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2026-07-17</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>14:07:12</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>5652</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5652</v>
-      </c>
-      <c r="M56" t="n">
-        <v>20492.24</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12295.34</v>
-      </c>
-      <c r="O56" t="n">
-        <v>8196.9</v>
-      </c>
-      <c r="P56" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>22</v>
-      </c>
-      <c r="R56" t="n">
-        <v>74.05</v>
-      </c>
-      <c r="S56" t="n">
-        <v>276.75</v>
-      </c>
-      <c r="T56" t="n">
-        <v>35.17</v>
-      </c>
-      <c r="U56" t="n">
-        <v>166.05</v>
-      </c>
-      <c r="V56" t="n">
-        <v>110.7</v>
-      </c>
-      <c r="W56" t="n">
-        <v>29.97</v>
-      </c>
-      <c r="X56" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>74.05</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2026-07-17 12:08:02</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.489</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>MOUSE_20260717_003</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2026-07-17</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>12:08:02</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>22127</v>
-      </c>
-      <c r="L57" t="n">
-        <v>22127</v>
-      </c>
-      <c r="M57" t="n">
-        <v>10096.53</v>
-      </c>
-      <c r="N57" t="n">
-        <v>6057.92</v>
-      </c>
-      <c r="O57" t="n">
-        <v>4038.61</v>
-      </c>
-      <c r="P57" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>12</v>
-      </c>
-      <c r="R57" t="n">
-        <v>139.85</v>
-      </c>
-      <c r="S57" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="T57" t="n">
-        <v>35.11</v>
-      </c>
-      <c r="U57" t="n">
-        <v>43.32</v>
-      </c>
-      <c r="V57" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="W57" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="X57" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>139.85</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0.489</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2026-07-20 11:20:29</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.517</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>MOUSE_20260720_000</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2026-07-20</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>11:20:29</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>22934</v>
-      </c>
-      <c r="L58" t="n">
-        <v>22934</v>
-      </c>
-      <c r="M58" t="n">
-        <v>22310.3</v>
-      </c>
-      <c r="N58" t="n">
-        <v>13386.18</v>
-      </c>
-      <c r="O58" t="n">
-        <v>8924.120000000001</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>17</v>
-      </c>
-      <c r="R58" t="n">
-        <v>39.05</v>
-      </c>
-      <c r="S58" t="n">
-        <v>571.3</v>
-      </c>
-      <c r="T58" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="U58" t="n">
-        <v>342.78</v>
-      </c>
-      <c r="V58" t="n">
-        <v>228.52</v>
-      </c>
-      <c r="W58" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="X58" t="n">
-        <v>27.39</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>39.05</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0.517</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2026-07-20 12:57:46</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.535</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>MOUSE_20260720_001</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2026-07-20</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>12:57:46</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>10825</v>
-      </c>
-      <c r="L59" t="n">
-        <v>10825</v>
-      </c>
-      <c r="M59" t="n">
-        <v>28822.2</v>
-      </c>
-      <c r="N59" t="n">
-        <v>17293.32</v>
-      </c>
-      <c r="O59" t="n">
-        <v>11528.88</v>
-      </c>
-      <c r="P59" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>3</v>
-      </c>
-      <c r="R59" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="S59" t="n">
-        <v>479.54</v>
-      </c>
-      <c r="T59" t="n">
-        <v>25.77</v>
-      </c>
-      <c r="U59" t="n">
-        <v>287.73</v>
-      </c>
-      <c r="V59" t="n">
-        <v>191.82</v>
-      </c>
-      <c r="W59" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="X59" t="n">
-        <v>20.54</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>0.535</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2026-07-20 09:54:28</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.543</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>MOUSE_20260720_002</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2026-07-20</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>09:54:28</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>5607</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5607</v>
-      </c>
-      <c r="M60" t="n">
-        <v>17797.07</v>
-      </c>
-      <c r="N60" t="n">
-        <v>10678.24</v>
-      </c>
-      <c r="O60" t="n">
-        <v>7118.83</v>
-      </c>
-      <c r="P60" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>10</v>
-      </c>
-      <c r="R60" t="n">
-        <v>179.67</v>
-      </c>
-      <c r="S60" t="n">
-        <v>99.06</v>
-      </c>
-      <c r="T60" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="U60" t="n">
-        <v>59.43</v>
-      </c>
-      <c r="V60" t="n">
-        <v>39.62</v>
-      </c>
-      <c r="W60" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="X60" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>179.67</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0.543</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2026-07-20 11:35:49</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>MOUSE_SESSION</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Mouse session - Score: 0.466</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>MOUSE_20260720_003</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>INFO</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2026-07-20</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>11:35:49</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Mouse</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>14161</v>
-      </c>
-      <c r="L61" t="n">
-        <v>14161</v>
-      </c>
-      <c r="M61" t="n">
-        <v>21975.95</v>
-      </c>
-      <c r="N61" t="n">
-        <v>13185.57</v>
-      </c>
-      <c r="O61" t="n">
-        <v>8790.379999999999</v>
-      </c>
-      <c r="P61" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" t="n">
-        <v>33.88</v>
-      </c>
-      <c r="S61" t="n">
-        <v>648.62</v>
-      </c>
-      <c r="T61" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="U61" t="n">
-        <v>389.17</v>
-      </c>
-      <c r="V61" t="n">
-        <v>259.45</v>
-      </c>
-      <c r="W61" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="X61" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>33.88</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0.466</v>
+        <v>0.494</v>
       </c>
     </row>
   </sheetData>
@@ -8717,7 +6947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8780,20 +7010,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-07-01 13:43:00</t>
+          <t>2026-07-01 12:20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-07-01 19:06:07</t>
+          <t>2026-07-01 14:08:46</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19387</v>
+        <v>6526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>05:23:00</t>
+          <t>01:48:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -8810,7 +7040,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BROWSER_20260702_00</t>
+          <t>BROWSER_20260701_01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -8820,25 +7050,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-07-02 14:50:00</t>
+          <t>2026-07-01 10:25:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2026-07-02 17:35:53</t>
+          <t>2026-07-01 12:50:12</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9953</v>
+        <v>8712</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02:45:00</t>
+          <t>02:25:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2026-07-01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8850,7 +7080,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BROWSER_20260702_01</t>
+          <t>BROWSER_20260702_00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -8860,20 +7090,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-07-02 15:08:00</t>
+          <t>2026-07-02 10:37:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2026-07-02 18:00:53</t>
+          <t>2026-07-02 14:29:28</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10373</v>
+        <v>13948</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02:52:00</t>
+          <t>03:52:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -8900,20 +7130,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-07-03 09:18:00</t>
+          <t>2026-07-03 13:54:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2026-07-03 14:49:49</t>
+          <t>2026-07-03 17:09:06</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19909</v>
+        <v>11706</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>05:31:00</t>
+          <t>03:15:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -8940,20 +7170,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-07-06 11:50:00</t>
+          <t>2026-07-06 13:46:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2026-07-06 17:07:09</t>
+          <t>2026-07-06 19:31:29</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19029</v>
+        <v>20729</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>05:17:00</t>
+          <t>05:45:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -8980,20 +7210,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2026-07-07 15:41:00</t>
+          <t>2026-07-07 10:59:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2026-07-07 17:45:20</t>
+          <t>2026-07-07 14:02:58</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7460</v>
+        <v>11038</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02:04:00</t>
+          <t>03:03:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -9010,7 +7240,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BROWSER_20260707_01</t>
+          <t>BROWSER_20260708_00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -9020,25 +7250,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2026-07-07 10:23:00</t>
+          <t>2026-07-08 10:09:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2026-07-07 12:29:32</t>
+          <t>2026-07-08 14:51:03</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7592</v>
+        <v>16923</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02:06:00</t>
+          <t>04:42:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2026-07-07</t>
+          <t>2026-07-08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -9050,7 +7280,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BROWSER_20260708_00</t>
+          <t>BROWSER_20260709_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -9060,25 +7290,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2026-07-08 09:11:00</t>
+          <t>2026-07-09 11:38:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2026-07-08 15:04:09</t>
+          <t>2026-07-09 14:26:21</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21189</v>
+        <v>10101</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>05:53:00</t>
+          <t>02:48:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2026-07-08</t>
+          <t>2026-07-09</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -9090,7 +7320,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BROWSER_20260709_00</t>
+          <t>BROWSER_20260709_01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -9100,20 +7330,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2026-07-09 11:42:00</t>
+          <t>2026-07-09 14:51:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2026-07-09 14:29:08</t>
+          <t>2026-07-09 17:40:24</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>10028</v>
+        <v>10164</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02:47:00</t>
+          <t>02:49:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -9130,7 +7360,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BROWSER_20260709_01</t>
+          <t>BROWSER_20260710_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -9140,25 +7370,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2026-07-09 12:47:00</t>
+          <t>2026-07-10 11:06:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2026-07-09 15:26:07</t>
+          <t>2026-07-10 16:28:55</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9547</v>
+        <v>19375</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>02:39:00</t>
+          <t>05:22:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2026-07-09</t>
+          <t>2026-07-10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -9170,7 +7400,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BROWSER_20260710_00</t>
+          <t>BROWSER_20260713_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -9180,25 +7410,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2026-07-10 12:29:00</t>
+          <t>2026-07-13 15:34:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2026-07-10 15:12:15</t>
+          <t>2026-07-13 20:46:08</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9795</v>
+        <v>18728</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02:43:00</t>
+          <t>05:12:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-13</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -9210,7 +7440,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BROWSER_20260710_01</t>
+          <t>BROWSER_20260714_00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -9220,25 +7450,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2026-07-10 13:27:00</t>
+          <t>2026-07-14 12:02:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2026-07-10 15:56:44</t>
+          <t>2026-07-14 16:12:13</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8984</v>
+        <v>15013</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02:29:00</t>
+          <t>04:10:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2026-07-10</t>
+          <t>2026-07-14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -9250,7 +7480,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BROWSER_20260713_00</t>
+          <t>BROWSER_20260715_00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -9260,25 +7490,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2026-07-13 12:21:00</t>
+          <t>2026-07-15 14:56:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2026-07-13 16:43:41</t>
+          <t>2026-07-15 18:23:55</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15761</v>
+        <v>12475</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>04:22:00</t>
+          <t>03:27:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2026-07-13</t>
+          <t>2026-07-15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -9290,7 +7520,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BROWSER_20260714_00</t>
+          <t>BROWSER_20260716_00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -9300,25 +7530,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2026-07-14 08:18:00</t>
+          <t>2026-07-16 14:47:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2026-07-14 12:40:22</t>
+          <t>2026-07-16 20:14:05</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15742</v>
+        <v>19625</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>04:22:00</t>
+          <t>05:27:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2026-07-14</t>
+          <t>2026-07-16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -9330,7 +7560,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BROWSER_20260715_00</t>
+          <t>BROWSER_20260717_00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -9340,25 +7570,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2026-07-15 14:40:00</t>
+          <t>2026-07-17 13:14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2026-07-15 16:29:18</t>
+          <t>2026-07-17 15:27:38</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6558</v>
+        <v>8018</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>01:49:00</t>
+          <t>02:13:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -9370,7 +7600,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BROWSER_20260715_01</t>
+          <t>BROWSER_20260717_01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -9380,25 +7610,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2026-07-15 09:39:00</t>
+          <t>2026-07-17 09:24:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2026-07-15 11:48:23</t>
+          <t>2026-07-17 11:57:31</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7763</v>
+        <v>9211</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>02:09:00</t>
+          <t>02:33:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2026-07-15</t>
+          <t>2026-07-17</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -9410,7 +7640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BROWSER_20260716_00</t>
+          <t>BROWSER_20260720_00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -9420,25 +7650,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2026-07-16 14:55:00</t>
+          <t>2026-07-20 13:26:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2026-07-16 17:11:15</t>
+          <t>2026-07-20 16:46:43</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8175</v>
+        <v>12043</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>02:16:00</t>
+          <t>03:20:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -9450,7 +7680,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BROWSER_20260716_01</t>
+          <t>BROWSER_20260721_00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -9460,25 +7690,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2026-07-16 15:28:00</t>
+          <t>2026-07-21 15:21:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2026-07-16 17:18:09</t>
+          <t>2026-07-21 17:52:20</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6609</v>
+        <v>9080</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>01:50:00</t>
+          <t>02:31:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-07-16</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -9490,7 +7720,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BROWSER_20260717_00</t>
+          <t>BROWSER_20260721_01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -9500,188 +7730,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2026-07-17 09:34:00</t>
+          <t>2026-07-21 13:15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2026-07-17 15:07:16</t>
+          <t>2026-07-21 15:14:33</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19996</v>
+        <v>7173</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>05:33:00</t>
+          <t>01:59:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-07-17</t>
+          <t>2026-07-21</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>BROWSER_20260720_00</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2026-07-20 12:14:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2026-07-20 14:51:12</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>9432</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>02:37:00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2026-07-20</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>BROWSER_20260720_01</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2026-07-20 10:57:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2026-07-20 13:07:12</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>7812</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>02:10:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2026-07-20</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>BROWSER_20260721_00</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2026-07-21 14:18:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2026-07-21 17:12:07</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>10447</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>02:54:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2026-07-21</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Browser_Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>BROWSER_20260721_01</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>EM002</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2026-07-21 10:48:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2026-07-21 12:54:16</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>7576</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>02:06:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2026-07-21</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>Browser_Session</t>
         </is>
